--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.269</v>
+        <v>-0.145</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.542</v>
+        <v>28.438</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.468</v>
+        <v>-0.027</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.435</v>
+        <v>27.002</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.47</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.034</v>
+        <v>27.802</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.41771996534279</v>
+        <v>29.00700891532679</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.78439077728385</v>
+        <v>29.00700893797695</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.95792181730035</v>
+        <v>29.00700893541635</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>38.37655953991381</v>
+        <v>29.00700894417217</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.1974898040246</v>
+        <v>29.0070089440977</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.4576864783234</v>
+        <v>29.00700896775339</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.72140666381133</v>
+        <v>29.00700893323514</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.32976962991158</v>
+        <v>29.00700895612666</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38.98529572371742</v>
+        <v>29.00700895468482</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43.46354234356615</v>
+        <v>29.00700896353294</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.89314942689139</v>
+        <v>29.00700896342961</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.40543785080086</v>
+        <v>29.00700898733498</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.2540268994922</v>
+        <v>29.00700893669545</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.80375106643493</v>
+        <v>29.0070089594524</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.53971862076988</v>
+        <v>29.00700895818589</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>44.98645359379314</v>
+        <v>29.00700896699013</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>18.5198171871424</v>
+        <v>29.0070089668964</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.96859743039274</v>
+        <v>29.00700899066012</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.2459004269979</v>
+        <v>29.00700891999367</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.92749948622773</v>
+        <v>29.00700894286802</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40.9350284740237</v>
+        <v>29.00700894053255</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>45.40732308320614</v>
+        <v>29.00700894938718</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18.43542108044552</v>
+        <v>29.00700894933017</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.03265417912288</v>
+        <v>29.00700897321882</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>37.02040689880949</v>
+        <v>29.00700896507798</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.23028687295601</v>
+        <v>29.00700897507222</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19.88586632190596</v>
+        <v>29.00700899151349</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.08093152713052</v>
+        <v>29.00700901413896</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.37466508951253</v>
+        <v>29.00700901201723</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50.69680279447126</v>
+        <v>29.00700902215528</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>42.46360073338159</v>
+        <v>29.00700898582025</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.74481898206392</v>
+        <v>29.00700899591827</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.91874426875366</v>
+        <v>29.00700901075222</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.35575729029815</v>
+        <v>29.00700903361111</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>51.16050962833506</v>
+        <v>29.00700903259895</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>56.54956313849111</v>
+        <v>29.00700904283519</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>44.11112718190558</v>
+        <v>29.00700898932319</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.35644509891107</v>
+        <v>29.00700899937147</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.49276031502397</v>
+        <v>29.00700901385614</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.8644752041645</v>
+        <v>29.00700903657921</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>52.74681763525161</v>
+        <v>29.00700903573084</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.09762241088576</v>
+        <v>29.00700904591455</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>44.46879657382718</v>
+        <v>29.00700897076946</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>49.74683982249498</v>
+        <v>29.00700898087641</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.99947235019531</v>
+        <v>29.00700899709464</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>40.52587729690737</v>
+        <v>29.00700901994249</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>52.68520202736747</v>
+        <v>29.00700901803667</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>58.07368442998839</v>
+        <v>29.00700902828608</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.2385370682429</v>
+        <v>29.00700890388966</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.86005277010785</v>
+        <v>29.00700892686515</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.93068467016535</v>
+        <v>29.00700892322273</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.17172672607428</v>
+        <v>29.00700893178249</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12.04014425683043</v>
+        <v>29.00700893215136</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.552814717791</v>
+        <v>29.00700895615239</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>14.3636135786023</v>
+        <v>29.00700892138555</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.23062153978404</v>
+        <v>29.00700894460884</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.76562294310614</v>
+        <v>29.00700894204815</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>43.06042326081396</v>
+        <v>29.00700895070167</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16.55102237005461</v>
+        <v>29.00700895106673</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.31964687722487</v>
+        <v>29.00700897532383</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.85581055683888</v>
+        <v>29.00700892483394</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.66304528126224</v>
+        <v>29.00700894792104</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.27383668939015</v>
+        <v>29.00700894553719</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>44.53733828608262</v>
+        <v>29.00700895414774</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.13612324797599</v>
+        <v>29.00700895452327</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.8400911620172</v>
+        <v>29.00700897863707</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.97573580276133</v>
+        <v>29.00700890831697</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.91915698599531</v>
+        <v>29.00700893152035</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>40.80133870746719</v>
+        <v>29.00700892808514</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>45.09150326519989</v>
+        <v>29.00700893674077</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>18.18732270909466</v>
+        <v>29.00700893713681</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.04368171349989</v>
+        <v>29.00700896137481</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>37.00973066192368</v>
+        <v>29.00700895242424</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>42.03173546849973</v>
+        <v>29.00700896218692</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>19.90799419605553</v>
+        <v>29.00700898089999</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.33546274083</v>
+        <v>29.00700900386108</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.4943261847137</v>
+        <v>29.00700900082899</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.6620941286398</v>
+        <v>29.00700901074431</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42.25474709135288</v>
+        <v>29.0070089727228</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.34187858026262</v>
+        <v>29.00700898259048</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24.76205263613463</v>
+        <v>29.00700899977299</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>39.4352072528755</v>
+        <v>29.00700902297383</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>51.08994343401829</v>
+        <v>29.00700902102528</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56.31826440373852</v>
+        <v>29.00700903103868</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>43.85492968404829</v>
+        <v>29.00700897621544</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>48.90648837745761</v>
+        <v>29.00700898603426</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.29149542529105</v>
+        <v>29.00700900286305</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>40.8982620634555</v>
+        <v>29.00700902592661</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>52.62685469125394</v>
+        <v>29.00700902414332</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>57.81700552516257</v>
+        <v>29.00700903410487</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>44.3521383242598</v>
+        <v>29.00700895785562</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>49.43781752818053</v>
+        <v>29.00700896772742</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.93134521069458</v>
+        <v>29.00700898625494</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.69583894466969</v>
+        <v>29.00700900944245</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>52.70132871820007</v>
+        <v>29.00700900661182</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>57.93146274710729</v>
+        <v>29.00700901663475</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.2385370682429</v>
+        <v>29.00700890388966</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.86005277010785</v>
+        <v>29.00700892686515</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>33.93068467016535</v>
+        <v>29.00700892322273</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.17172672607428</v>
+        <v>29.00700893178249</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>12.04014425683043</v>
+        <v>29.00700893215136</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.552814717791</v>
+        <v>29.00700895615239</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.3636135786023</v>
+        <v>29.00700892138555</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.23062153978404</v>
+        <v>29.00700894460884</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.76562294310614</v>
+        <v>29.00700894204815</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>43.06042326081396</v>
+        <v>29.00700895070167</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.55102237005461</v>
+        <v>29.00700895106673</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.31964687722487</v>
+        <v>29.00700897532383</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>15.85581055683888</v>
+        <v>29.00700892483394</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.66304528126224</v>
+        <v>29.00700894792104</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>40.27383668939015</v>
+        <v>29.00700894553719</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>44.53733828608262</v>
+        <v>29.00700895414774</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>18.13612324797599</v>
+        <v>29.00700895452327</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.8400911620172</v>
+        <v>29.00700897863707</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>15.97573580276133</v>
+        <v>29.00700890831697</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.91915698599531</v>
+        <v>29.00700893152035</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>40.80133870746719</v>
+        <v>29.00700892808514</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>45.09150326519989</v>
+        <v>29.00700893674077</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.18732270909466</v>
+        <v>29.00700893713681</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.04368171349989</v>
+        <v>29.00700896137481</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>37.00973066192368</v>
+        <v>29.00700895242424</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.03173546849973</v>
+        <v>29.00700896218692</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>19.90799419605553</v>
+        <v>29.00700898089999</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>34.33546274083</v>
+        <v>29.00700900386108</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>45.4943261847137</v>
+        <v>29.00700900082899</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>50.6620941286398</v>
+        <v>29.00700901074431</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.25474709135288</v>
+        <v>29.0070089727228</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.34187858026262</v>
+        <v>29.00700898259048</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24.76205263613463</v>
+        <v>29.00700899977299</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>39.4352072528755</v>
+        <v>29.00700902297383</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.08994343401829</v>
+        <v>29.00700902102528</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>56.31826440373852</v>
+        <v>29.00700903103868</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>43.85492968404829</v>
+        <v>29.00700897621544</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.90648837745761</v>
+        <v>29.00700898603426</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.29149542529105</v>
+        <v>29.00700900286305</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>40.8982620634555</v>
+        <v>29.00700902592661</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>52.62685469125394</v>
+        <v>29.00700902414332</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>57.81700552516257</v>
+        <v>29.00700903410487</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>44.3521383242598</v>
+        <v>29.00700895785562</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>49.43781752818053</v>
+        <v>29.00700896772742</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.93134521069458</v>
+        <v>29.00700898625494</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>40.69583894466969</v>
+        <v>29.00700900944245</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>52.70132871820007</v>
+        <v>29.00700900661182</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>57.93146274710729</v>
+        <v>29.00700901663475</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>7.001755109498426</v>
+        <v>29.00700890949199</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.41959130253825</v>
+        <v>29.00700893229294</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.5151819061696</v>
+        <v>29.0070089294845</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.92506490483854</v>
+        <v>29.00700893825748</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.879146220149739</v>
+        <v>29.00700893847918</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.19696797893661</v>
+        <v>29.00700896229578</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.27900781655111</v>
+        <v>29.00700892743224</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.93949036722746</v>
+        <v>29.00700895047598</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.51725219965365</v>
+        <v>29.0070089487905</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>39.9866209464498</v>
+        <v>29.00700895765646</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>13.55064778227606</v>
+        <v>29.00700895785218</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.12161206219136</v>
+        <v>29.00700898191992</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12.83406290118051</v>
+        <v>29.00700893094367</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.43566019266174</v>
+        <v>29.00700895385188</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.09466501786375</v>
+        <v>29.00700895234437</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.5325621305679</v>
+        <v>29.0070089611663</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>15.19956875986685</v>
+        <v>29.00700896136949</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.70673937493135</v>
+        <v>29.00700898529456</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.77070960974223</v>
+        <v>29.00700891412778</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.50449458337935</v>
+        <v>29.00700893715432</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>37.43356024109775</v>
+        <v>29.00700893457039</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>41.89702342382274</v>
+        <v>29.00700894344227</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>15.06233494100765</v>
+        <v>29.00700894368378</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.71831334411148</v>
+        <v>29.00700896773484</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.68036197124373</v>
+        <v>29.00700895937304</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.88953990578462</v>
+        <v>29.00700896939147</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17.03784195428808</v>
+        <v>29.00700898683218</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.29381907200065</v>
+        <v>29.00700900961439</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.52544714731248</v>
+        <v>29.00700900728451</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>47.85460554289873</v>
+        <v>29.00700901745021</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.10075444761125</v>
+        <v>29.00700898016276</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>44.38121244948032</v>
+        <v>29.00700899028574</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>22.05479595079326</v>
+        <v>29.00700900612458</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.5537571528271</v>
+        <v>29.00700902914161</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.29732131740246</v>
+        <v>29.00700902792753</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>53.69331929355921</v>
+        <v>29.00700903819196</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>40.77111015561504</v>
+        <v>29.00700898371788</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>46.01566591694044</v>
+        <v>29.0070089937909</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.64859461182079</v>
+        <v>29.00700900927378</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>38.08193151711225</v>
+        <v>29.00700903215401</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>49.90396534303412</v>
+        <v>29.00700903110627</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>55.26164862767251</v>
+        <v>29.00700904131791</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>41.0748680296012</v>
+        <v>29.00700896503763</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>46.3523457029636</v>
+        <v>29.00700897516891</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>23.10734500455882</v>
+        <v>29.00700899239527</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.69574771339073</v>
+        <v>29.00700901540131</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>49.79354865308943</v>
+        <v>29.00700901328739</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>55.18932316478236</v>
+        <v>29.00700902356456</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.72238969502527</v>
+        <v>29.00700891702983</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.13802402997128</v>
+        <v>29.00700893967178</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.30147080212203</v>
+        <v>29.00700893707283</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>39.69518377038948</v>
+        <v>29.00700894579767</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>13.69716196639872</v>
+        <v>29.00700894583839</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.00519912544589</v>
+        <v>29.00700896948609</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.02027923651385</v>
+        <v>29.0070089348546</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.67783804626664</v>
+        <v>29.00700895773767</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>40.321060777543</v>
+        <v>29.00700895625238</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>44.77361909416796</v>
+        <v>29.00700896506833</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>18.38539478782125</v>
+        <v>29.00700896507829</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>32.94571133556217</v>
+        <v>29.00700898897533</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>17.53433401897161</v>
+        <v>29.00700893828851</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.13291045864855</v>
+        <v>29.00700896103708</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>41.85572445964438</v>
+        <v>29.00700895972687</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>46.27683640114056</v>
+        <v>29.00700896849878</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.991690490489</v>
+        <v>29.007008968517</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>34.48815120642856</v>
+        <v>29.00700899227245</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>17.52518677515344</v>
+        <v>29.00700892168876</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.2567743469117</v>
+        <v>29.00700894455482</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.24928479780091</v>
+        <v>29.00700894217994</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>46.69624164987823</v>
+        <v>29.00700895100276</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.9122486353418</v>
+        <v>29.00700895106066</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.55829099215262</v>
+        <v>29.00700897494123</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.57225837445583</v>
+        <v>29.00700896678653</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.75238217795655</v>
+        <v>29.00700897674439</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>21.21390759428713</v>
+        <v>29.00700899294898</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.45100755952643</v>
+        <v>29.00700901556702</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>46.74114217822027</v>
+        <v>29.00700901342354</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>52.03702782704565</v>
+        <v>29.00700902352767</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>44.00606423768757</v>
+        <v>29.00700898743147</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>49.25662930900234</v>
+        <v>29.00700899749179</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.23473463710834</v>
+        <v>29.00700901209327</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>40.71394117960364</v>
+        <v>29.00700903494452</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>52.51283190932823</v>
+        <v>29.00700903390614</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>57.87474551537683</v>
+        <v>29.00700904410704</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>45.63192694810731</v>
+        <v>29.00700899090602</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>27.78923175648633</v>
+        <v>29.00700901517086</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>42.20283421831483</v>
+        <v>29.00700903788635</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>54.07845317709588</v>
+        <v>29.00700903701143</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>59.4021769541111</v>
+        <v>29.00700904715963</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.99409227615324</v>
+        <v>29.00700897246674</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.24185606658295</v>
+        <v>29.00700898253637</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.30287850305221</v>
+        <v>29.00700899851656</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.87217701831692</v>
+        <v>29.00700902135689</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>54.0233785713792</v>
+        <v>29.00700901942847</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>59.38516409525737</v>
+        <v>29.00700902964305</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>11.95345714525288</v>
+        <v>29.00700891105518</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.57574834025393</v>
+        <v>29.00700893392433</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>35.75122315669535</v>
+        <v>29.00700893073223</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.99410225131601</v>
+        <v>29.00700893928078</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.16444733801322</v>
+        <v>29.00700893967572</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.67720391902283</v>
+        <v>29.00700896356591</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>16.12578963894216</v>
+        <v>29.00700892857951</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.99302657771339</v>
+        <v>29.00700895169249</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>40.63797896678572</v>
+        <v>29.00700894959235</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.93510528562413</v>
+        <v>29.00700895823246</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>18.72565683438889</v>
+        <v>29.00700895860967</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>33.49372101806764</v>
+        <v>29.00700898275187</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>17.60556952109827</v>
+        <v>29.00700893198395</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.41277204332341</v>
+        <v>29.00700895496121</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>42.13396219600335</v>
+        <v>29.00700895303616</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>46.39997125206811</v>
+        <v>29.00700896163286</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>20.29549735428422</v>
+        <v>29.00700896201853</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.9986313401614</v>
+        <v>29.0070089860179</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>17.6816294459915</v>
+        <v>29.00700891555388</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.62450196818464</v>
+        <v>29.00700893864957</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.61725584210245</v>
+        <v>29.00700893567078</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>46.91006240735904</v>
+        <v>29.00700894431453</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>20.30879188027867</v>
+        <v>29.00700894473335</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>35.16387609593356</v>
+        <v>29.00700896885907</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>39.26773819141799</v>
+        <v>29.00700896029996</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>44.28939508299923</v>
+        <v>29.00700897005563</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.88778846287036</v>
+        <v>29.00700898757227</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.31351674580544</v>
+        <v>29.00700901042577</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>47.61193460575733</v>
+        <v>29.00700900780348</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>52.77256173179627</v>
+        <v>29.00700901771267</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.56754760506105</v>
+        <v>29.00700898062246</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>49.65476677287525</v>
+        <v>29.00700899048071</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.78629758863234</v>
+        <v>29.00700900644383</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>53.25555320655403</v>
+        <v>29.00700902800229</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>58.47723516683114</v>
+        <v>29.00700903800738</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>46.1524553321617</v>
+        <v>29.00700898406594</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>51.20425465508713</v>
+        <v>29.00700899387488</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.30152643116279</v>
+        <v>29.00700900949051</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>42.9056030349934</v>
+        <v>29.00700903244308</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>54.77794924086329</v>
+        <v>29.00700903107561</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>59.96168747301284</v>
+        <v>29.00700904102844</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>46.61201876740907</v>
+        <v>29.00700896580809</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>51.69803222328768</v>
+        <v>29.00700897567224</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.90702871092945</v>
+        <v>29.00700899298904</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>42.66855094397913</v>
+        <v>29.00700901606753</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>54.81864028413113</v>
+        <v>29.00700901365197</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>60.04233190807668</v>
+        <v>29.00700902366822</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>8.988949395861873</v>
+        <v>29.00700890718412</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.50078751481019</v>
+        <v>29.00700893007193</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>32.70024315503931</v>
+        <v>29.007008926967</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>37.00067418840159</v>
+        <v>29.00700893558597</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>10.75450118335778</v>
+        <v>29.00700893571907</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.15948384529649</v>
+        <v>29.00700895962743</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>13.17528193354503</v>
+        <v>29.00700892489844</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.93155768991726</v>
+        <v>29.00700894803063</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>37.60560071116281</v>
+        <v>29.00700894602926</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>41.96203535740963</v>
+        <v>29.00700895474247</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>15.33344268851195</v>
+        <v>29.00700895486216</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.99332808288674</v>
+        <v>29.00700897902329</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>14.69754231182048</v>
+        <v>29.00700892836286</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.3945623651516</v>
+        <v>29.00700895135919</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>39.14679176532</v>
+        <v>29.00700894953346</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>43.47195592706293</v>
+        <v>29.00700895820364</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16.9498951185631</v>
+        <v>29.00700895833486</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>31.54563785813217</v>
+        <v>29.00700898235303</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.77576948143913</v>
+        <v>29.00700891170089</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.6058797298877</v>
+        <v>29.00700893481542</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>39.63395550966489</v>
+        <v>29.00700893192622</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>43.9852663556623</v>
+        <v>29.00700894064227</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>16.95172085773602</v>
+        <v>29.00700894079989</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>31.69685384843048</v>
+        <v>29.007008964944</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>35.74091941328693</v>
+        <v>29.00700895641637</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>40.83128917481696</v>
+        <v>29.00700896625473</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>18.86742087745847</v>
+        <v>29.00700898430937</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>33.19863520282118</v>
+        <v>29.00700900717974</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.50601398227754</v>
+        <v>29.00700900460689</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>49.72731376677562</v>
+        <v>29.00700901459319</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>41.06300421335289</v>
+        <v>29.0070089769601</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>46.22099883081168</v>
+        <v>29.00700898690405</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.79419428494958</v>
+        <v>29.00700900339558</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>38.37004909395019</v>
+        <v>29.00700902650237</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>50.18276511052495</v>
+        <v>29.007009025031</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>55.46715959248273</v>
+        <v>29.00700903511641</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>42.69747596102981</v>
+        <v>29.00700898046813</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>47.81986706469453</v>
+        <v>29.00700899036317</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.35409809266145</v>
+        <v>29.0070090065021</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.86401347889147</v>
+        <v>29.00700902947193</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>51.75250557356663</v>
+        <v>29.00700902816477</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>56.99881637047272</v>
+        <v>29.00700903819834</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>43.14665775490433</v>
+        <v>29.00700896195013</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>48.30259008541918</v>
+        <v>29.0070089718991</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24.94357226996789</v>
+        <v>29.00700898975696</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>39.60865498007921</v>
+        <v>29.00700901285257</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>51.77810634893434</v>
+        <v>29.00700901048836</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>57.06349565696571</v>
+        <v>29.00700902058377</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>10.28853998044408</v>
+        <v>29.00700891330315</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>23.93224484713774</v>
+        <v>29.00700893634102</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>34.2086503908843</v>
+        <v>29.00700893353476</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.6449562665461</v>
+        <v>29.00700894236578</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>12.31977568176602</v>
+        <v>29.00700894253426</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.87022174928457</v>
+        <v>29.00700896659733</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.62158318943329</v>
+        <v>29.00700893135269</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.5113156192637</v>
+        <v>29.00700895463614</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>39.27279262195396</v>
+        <v>29.00700895295738</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>43.76822204109854</v>
+        <v>29.0070089618812</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>17.04903352203198</v>
+        <v>29.00700896202166</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.85604442396832</v>
+        <v>29.00700898633866</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>16.16207030710317</v>
+        <v>29.007008934851</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.9918169404475</v>
+        <v>29.00700895799759</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>40.83388771370512</v>
+        <v>29.00700895649723</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>45.29746391459557</v>
+        <v>29.0070089653765</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>18.68296799780993</v>
+        <v>29.00700896552489</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.42503750153779</v>
+        <v>29.00700898969783</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>16.14765309776262</v>
+        <v>29.00700891799308</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>30.11269917193146</v>
+        <v>29.007008941259</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.22826252695847</v>
+        <v>29.00700893867808</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>45.71809581285174</v>
+        <v>29.00700894760822</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>18.59839102105656</v>
+        <v>29.00700894779586</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>33.49253953747875</v>
+        <v>29.00700897209592</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.55470630905246</v>
+        <v>29.00700896369159</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.79028670322548</v>
+        <v>29.00700897377191</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.1173268745605</v>
+        <v>29.00700899074929</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>34.59503882054472</v>
+        <v>29.007009013766</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>46.01546659813312</v>
+        <v>29.00700901144856</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>51.37384334250955</v>
+        <v>29.0070090216797</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>43.03936482339839</v>
+        <v>29.00700898460365</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>48.34582704756409</v>
+        <v>29.00700899478828</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.18716415554289</v>
+        <v>29.00700901014853</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.91110210435802</v>
+        <v>29.00700903340277</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>51.84642044597688</v>
+        <v>29.0070090322058</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>57.27119273424734</v>
+        <v>29.00700904253531</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>44.69285958974072</v>
+        <v>29.00700898814361</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>49.96302997014283</v>
+        <v>29.00700899827771</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.76737204941337</v>
+        <v>29.00700901328353</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.42458794963012</v>
+        <v>29.00700903639966</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>53.43769327029146</v>
+        <v>29.00700903536927</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>58.82373164182498</v>
+        <v>29.00700904564539</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>45.05654409654332</v>
+        <v>29.00700896941665</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>50.36033082843009</v>
+        <v>29.00700897961005</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.27112921686138</v>
+        <v>29.0070089963665</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>41.08655786768357</v>
+        <v>29.00700901960946</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>53.3791745286764</v>
+        <v>29.00700901750872</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>58.80408373345955</v>
+        <v>29.00700902785159</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>16.05004850919889</v>
+        <v>29.0070089172244</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.56739825918728</v>
+        <v>29.00700893987634</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>39.81376325587631</v>
+        <v>29.00700893693919</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>44.03860759669682</v>
+        <v>29.00700894542207</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.83887786962395</v>
+        <v>29.00700894523646</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.23335814005422</v>
+        <v>29.00700896889557</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>20.22258222742318</v>
+        <v>29.00700893464708</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>33.98313528339227</v>
+        <v>29.00700895754052</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>44.69705044183769</v>
+        <v>29.00700895568568</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>48.97569423792481</v>
+        <v>29.00700896425992</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>22.39450521149322</v>
+        <v>29.00700896405431</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.04240912082654</v>
+        <v>29.00700898796303</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>21.66871590591393</v>
+        <v>29.00700893797987</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>35.36976538422179</v>
+        <v>29.007008960739</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.15851514793788</v>
+        <v>29.00700895905534</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>50.4061422363916</v>
+        <v>29.00700896758662</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>23.93255262035354</v>
+        <v>29.00700896739446</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.51613673742725</v>
+        <v>29.00700899116185</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>21.83350012651887</v>
+        <v>29.00700892172735</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>35.66908676659661</v>
+        <v>29.00700894460387</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>46.73069929169602</v>
+        <v>29.00700894187902</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>51.00518155829151</v>
+        <v>29.00700895045649</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>24.02554088222418</v>
+        <v>29.00700895029138</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>38.75970817246372</v>
+        <v>29.00700897418397</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>42.87553883654414</v>
+        <v>29.00700896587212</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>47.86747818690078</v>
+        <v>29.00700897554562</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.0817221737214</v>
+        <v>29.00700899208542</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>39.3846104839913</v>
+        <v>29.00700901471579</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>50.71786184139327</v>
+        <v>29.00700901230281</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>55.83913048503589</v>
+        <v>29.00700902212115</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>48.16564053376112</v>
+        <v>29.007008986066</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>53.22257031371426</v>
+        <v>29.00700899584173</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.96688075685746</v>
+        <v>29.00700901083196</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.51289136303481</v>
+        <v>29.00700903369594</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>56.34361504369059</v>
+        <v>29.00700903236383</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>61.52534165311644</v>
+        <v>29.00700904227763</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>49.71798992322383</v>
+        <v>29.00700898943852</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>54.73966391445794</v>
+        <v>29.00700899916548</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.4527284154519</v>
+        <v>29.00700901381649</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>45.93275807666177</v>
+        <v>29.0070090365451</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>57.83592164916112</v>
+        <v>29.007009035373</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>62.97995673864315</v>
+        <v>29.0070090452351</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>50.2566622652694</v>
+        <v>29.00700897137444</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>55.3123936276358</v>
+        <v>29.00700898115563</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.13261269325119</v>
+        <v>29.00700899748993</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>45.7685888951284</v>
+        <v>29.00700902034333</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>57.95008201030475</v>
+        <v>29.00700901813579</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>63.13372420590642</v>
+        <v>29.00700902806028</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4.038028446886401</v>
+        <v>29.00700889554353</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.97800173936298</v>
+        <v>29.00700891760705</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.46955556814287</v>
+        <v>29.00700891387756</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.59573023398713</v>
+        <v>29.00700892216353</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>5.526467049484346</v>
+        <v>29.00700892272273</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.32887092948527</v>
+        <v>29.00700894577279</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>7.974948663220307</v>
+        <v>29.00700891246074</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.14962309667885</v>
+        <v>29.00700893476462</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.08692754341653</v>
+        <v>29.00700893207887</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.26678977702473</v>
+        <v>29.00700894045732</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>9.836704057179517</v>
+        <v>29.00700894102361</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>23.88401402282934</v>
+        <v>29.00700896432221</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>9.473462847788561</v>
+        <v>29.00700891587667</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.59170871994889</v>
+        <v>29.00700893804969</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.60408016373351</v>
+        <v>29.00700893553641</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.75377674732111</v>
+        <v>29.00700894387423</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>11.42711045561338</v>
+        <v>29.00700894444969</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.41329448454821</v>
+        <v>29.0070089676106</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>9.524113207317132</v>
+        <v>29.00700889975388</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>22.77099509977491</v>
+        <v>29.00700892203623</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>33.04510165737882</v>
+        <v>29.00700891850486</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>37.21902376532008</v>
+        <v>29.00700892688507</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11.40623529577755</v>
+        <v>29.00700892747396</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.53674106038827</v>
+        <v>29.00700895075161</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.16249250327141</v>
+        <v>29.00700894193865</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.0532164808667</v>
+        <v>29.0070089513959</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.64129096092968</v>
+        <v>29.00700897072554</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.37916477074914</v>
+        <v>29.00700899277734</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>37.89771051707662</v>
+        <v>29.00700898963139</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>42.93027704476669</v>
+        <v>29.00700899923959</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.17653139718364</v>
+        <v>29.00700896157504</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.13222587577526</v>
+        <v>29.00700897113605</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>18.29276717633886</v>
+        <v>29.00700898900071</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.26583795329909</v>
+        <v>29.00700901128507</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>43.26069348130973</v>
+        <v>29.00700900918328</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>48.35393179864454</v>
+        <v>29.00700901888916</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.78487872498719</v>
+        <v>29.00700896503842</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>40.70627541998515</v>
+        <v>29.00700897455321</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.82699772188352</v>
+        <v>29.00700899206823</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.73717978798862</v>
+        <v>29.00700901422066</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.80546067092396</v>
+        <v>29.00700901227994</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>49.8618658975458</v>
+        <v>29.00700902193674</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.19093584218827</v>
+        <v>29.00700894711697</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>41.14375486722133</v>
+        <v>29.00700895668154</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>19.41180891326361</v>
+        <v>29.00700897584447</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.47177557689217</v>
+        <v>29.00700899811372</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>44.80624112345168</v>
+        <v>29.00700899515991</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>49.89953862243351</v>
+        <v>29.00700900487412</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>7.269497815152331</v>
+        <v>29.00700889969972</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.56024440766679</v>
+        <v>29.00700892216327</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.25556187047603</v>
+        <v>29.00700891836562</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>34.38225355904558</v>
+        <v>29.00700892671853</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>9.288158563044224</v>
+        <v>29.0070089275298</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>23.45360379567474</v>
+        <v>29.00700895099929</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>11.26307068637659</v>
+        <v>29.00700891673972</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>24.79331294502729</v>
+        <v>29.00700893944596</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.93971672668717</v>
+        <v>29.00700893670327</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>39.11882377867933</v>
+        <v>29.00700894514757</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>13.65991010222468</v>
+        <v>29.00700894595893</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.07512091938951</v>
+        <v>29.0070089696792</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>12.73810638380425</v>
+        <v>29.00700892014609</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.21000962568683</v>
+        <v>29.0070089427191</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>36.43094052561714</v>
+        <v>29.00700894015121</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>40.57959066904876</v>
+        <v>29.00700894855354</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>15.22399144253093</v>
+        <v>29.00700894937143</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.57606739924833</v>
+        <v>29.0070089729515</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.79138832628072</v>
+        <v>29.00700890397877</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.39631328997217</v>
+        <v>29.00700892666503</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.87936342471506</v>
+        <v>29.0070089230682</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.05380562829923</v>
+        <v>29.00700893151464</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.2168716071064</v>
+        <v>29.00700893235539</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.71785628990249</v>
+        <v>29.00700895605648</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.5343717478446</v>
+        <v>29.0070089471266</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>38.42785340266802</v>
+        <v>29.00700895665826</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.31172066768058</v>
+        <v>29.00700897574503</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.39839271216263</v>
+        <v>29.00700899819947</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.17204431649012</v>
+        <v>29.00700899503541</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>47.21537809807175</v>
+        <v>29.00700900472177</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>38.62061723213617</v>
+        <v>29.00700896690599</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>43.57764318603409</v>
+        <v>29.00700897654006</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>22.02313029855124</v>
+        <v>29.00700899414302</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>36.34959910509456</v>
+        <v>29.0070090168323</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>47.60557686465924</v>
+        <v>29.00700901472594</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>52.70802939446708</v>
+        <v>29.00700902450807</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>40.19992575171079</v>
+        <v>29.00700897035546</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>45.12230430451377</v>
+        <v>29.00700897994181</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.5312172238608</v>
+        <v>29.00700899719437</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.79283637283054</v>
+        <v>29.00700901974932</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>49.12150571870621</v>
+        <v>29.0070090178062</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>54.1867124856967</v>
+        <v>29.00700902753767</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.62571555402327</v>
+        <v>29.00700895238636</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.58129207732105</v>
+        <v>29.00700896202454</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>23.1288513812882</v>
+        <v>29.00700898093792</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.54463500901855</v>
+        <v>29.00700900361365</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>49.14122386754979</v>
+        <v>29.00700900064517</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>54.24547901027623</v>
+        <v>29.00700901043667</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>4.796228526994149</v>
+        <v>29.00700889617221</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>17.84610245873723</v>
+        <v>29.00700891837503</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.39352133448838</v>
+        <v>29.00700891457856</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.46657478072927</v>
+        <v>29.00700892282392</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>6.389385929308975</v>
+        <v>29.00700892342074</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>20.30185628841101</v>
+        <v>29.00700894661839</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>8.710298359505249</v>
+        <v>29.00700891304752</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.99622161514466</v>
+        <v>29.00700893548988</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>31.99045381013235</v>
+        <v>29.00700893273902</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.11555047256661</v>
+        <v>29.00700894107659</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>10.67750511210801</v>
+        <v>29.00700894167699</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.83622334169146</v>
+        <v>29.00700896512225</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>10.18984646189284</v>
+        <v>29.00700891644651</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.41864540047801</v>
+        <v>29.00700893875717</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>33.48735717939207</v>
+        <v>29.00700893617927</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>37.58247080479435</v>
+        <v>29.00700894447577</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>12.24807200249092</v>
+        <v>29.0070089450853</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.3449467015518</v>
+        <v>29.00700896839199</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.24097570060632</v>
+        <v>29.00700890036963</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.59922523882194</v>
+        <v>29.00700892279258</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>33.92821577538122</v>
+        <v>29.00700891919423</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>38.04852726483308</v>
+        <v>29.0070089275324</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>12.22891594647665</v>
+        <v>29.00700892815901</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.47079871983208</v>
+        <v>29.00700895158561</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>30.19817091949953</v>
+        <v>29.00700894272314</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>35.03482949797318</v>
+        <v>29.00700895213413</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.75379506999625</v>
+        <v>29.00700897171878</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.59565369143794</v>
+        <v>29.00700899391477</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>39.19497789526204</v>
+        <v>29.00700899073835</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>44.17785847206406</v>
+        <v>29.00700900029693</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>35.19266221454652</v>
+        <v>29.00700896231693</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>40.09248732123282</v>
+        <v>29.00700897183116</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.3872419463911</v>
+        <v>29.00700898995582</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.46553489366325</v>
+        <v>29.00700901238357</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>44.54293548791296</v>
+        <v>29.0070090102567</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>49.58456405795416</v>
+        <v>29.0070090199117</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>36.77984458817782</v>
+        <v>29.0070089657623</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>41.64553076764808</v>
+        <v>29.00700897522977</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.90013296968456</v>
+        <v>29.0070089930043</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.91482109794472</v>
+        <v>29.00700901529932</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>46.06500479857156</v>
+        <v>29.00700901333432</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>51.06994139295746</v>
+        <v>29.00700902293962</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.18698574146271</v>
+        <v>29.00700894789023</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>42.08524754311071</v>
+        <v>29.00700895740689</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.49075256976267</v>
+        <v>29.00700897682838</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.65570380274455</v>
+        <v>29.00700899924321</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>46.07119389092509</v>
+        <v>29.00700899626013</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>51.11451749642656</v>
+        <v>29.00700900592287</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1.195527410427335</v>
+        <v>29.00700889110115</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.84871701732245</v>
+        <v>29.00700891270382</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.96027259146196</v>
+        <v>29.00700890873453</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.89955333391421</v>
+        <v>29.00700891673713</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>2.9819327518845</v>
+        <v>29.00700891780238</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.47796940075181</v>
+        <v>29.00700894037677</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>4.953661389570836</v>
+        <v>29.00700890744973</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.83581421048915</v>
+        <v>29.00700892928586</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.37886777843839</v>
+        <v>29.0070089263313</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.3686501093027</v>
+        <v>29.00700893442357</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>7.105138379724373</v>
+        <v>29.00700893549715</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.84011457079839</v>
+        <v>29.00700895831289</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>6.414592193961084</v>
+        <v>29.00700891080104</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.24136016549369</v>
+        <v>29.00700893250897</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.85747879158787</v>
+        <v>29.00700892972487</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>32.81827192413864</v>
+        <v>29.00700893777731</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>8.653010240144731</v>
+        <v>29.0070089388559</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.32798879084593</v>
+        <v>29.00700896153672</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.391089335558593</v>
+        <v>29.00700889512407</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>19.34336734484808</v>
+        <v>29.00700891694079</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.20920853911261</v>
+        <v>29.0070089131622</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.19415951190555</v>
+        <v>29.00700892125494</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>8.567369169990947</v>
+        <v>29.00700892235258</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.3830228905265</v>
+        <v>29.00700894514963</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.93329639933054</v>
+        <v>29.0070089363179</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.61999995851064</v>
+        <v>29.00700894545772</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.55966100573207</v>
+        <v>29.00700896551558</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.99319405041598</v>
+        <v>29.00700898711758</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>35.14260119833246</v>
+        <v>29.0070089837927</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>39.97967610677871</v>
+        <v>29.00700899308159</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.74001968279664</v>
+        <v>29.00700895531206</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>35.48808028519863</v>
+        <v>29.00700896455233</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16.02492422049405</v>
+        <v>29.007008983205</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.68793490078168</v>
+        <v>29.00700900503293</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>40.29981239217275</v>
+        <v>29.00700900272789</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>45.19399192907328</v>
+        <v>29.0070090121107</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>32.30482839204869</v>
+        <v>29.00700895870887</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>37.01984118089595</v>
+        <v>29.00700896790375</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>17.51454959529674</v>
+        <v>29.00700898621002</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.1158145114935</v>
+        <v>29.00700900790869</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>41.7991857686063</v>
+        <v>29.00700900576312</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>46.65776851520017</v>
+        <v>29.00700901509766</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.63010938341619</v>
+        <v>29.0070089412832</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>37.37659683225074</v>
+        <v>29.00700895052568</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>17.05722908736193</v>
+        <v>29.00700897043512</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.80433435604198</v>
+        <v>29.00700899224994</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>41.74269481843018</v>
+        <v>29.0070089891116</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>46.63854555825155</v>
+        <v>29.0070089985018</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>8.577403906979782</v>
+        <v>29.00700891106819</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.15712320970581</v>
+        <v>29.00700893411684</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.44705778014467</v>
+        <v>29.0070089313609</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>36.91631342493463</v>
+        <v>29.00700894023258</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>10.35222723755769</v>
+        <v>29.00700894024989</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.84019712371848</v>
+        <v>29.00700896432345</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>12.91828550197166</v>
+        <v>29.00700892922742</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.74373333701131</v>
+        <v>29.00700895252196</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.52166898795964</v>
+        <v>29.00700895090023</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.05105566529684</v>
+        <v>29.00700895986625</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>15.09146907323788</v>
+        <v>29.00700895985803</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.83576385219216</v>
+        <v>29.00700898418597</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14.48320584515519</v>
+        <v>29.00700893276036</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.24911791507674</v>
+        <v>29.00700895591796</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>39.10876716314775</v>
+        <v>29.00700895447495</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>43.60621361787362</v>
+        <v>29.00700896339664</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>16.75221365151424</v>
+        <v>29.00700896339812</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.43202228793577</v>
+        <v>29.00700898758191</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>14.47008250640821</v>
+        <v>29.00700891576856</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.36980441281135</v>
+        <v>29.00700893904535</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>39.50540498902383</v>
+        <v>29.00700893651615</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>44.02873363767392</v>
+        <v>29.00700894548804</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.66107739441016</v>
+        <v>29.00700894552487</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>31.49148604382386</v>
+        <v>29.00700896983555</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.51920729978689</v>
+        <v>29.0070089614494</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.7941260285322</v>
+        <v>29.00700897157746</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>18.37476428316346</v>
+        <v>29.00700898886545</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>32.79763372483653</v>
+        <v>29.00700901189191</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.22300403829152</v>
+        <v>29.007009009603</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>49.61610131772471</v>
+        <v>29.00700901987867</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.01644678353093</v>
+        <v>29.00700898248919</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>46.36343070028107</v>
+        <v>29.00700899272329</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>23.46065740005747</v>
+        <v>29.00700900838862</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.12955069443872</v>
+        <v>29.00700903165288</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.0727980480802</v>
+        <v>29.00700903049033</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>55.53346167456149</v>
+        <v>29.00700904086621</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.69845058429505</v>
+        <v>29.00700898606642</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>48.00903843064842</v>
+        <v>29.00700899625022</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.06655692950667</v>
+        <v>29.00700901155817</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.66912859363391</v>
+        <v>29.00700903468426</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>51.69129864781402</v>
+        <v>29.0070090336887</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>57.11314935852504</v>
+        <v>29.00700904401143</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.05618994073871</v>
+        <v>29.00700896718925</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>48.40000611368139</v>
+        <v>29.00700897743162</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.56114067078262</v>
+        <v>29.00700899450046</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.32060788701503</v>
+        <v>29.00700901775329</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>51.62413515871229</v>
+        <v>29.00700901568221</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>57.08435233564796</v>
+        <v>29.00700902607079</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>7.518069993072267</v>
+        <v>29.00700889879475</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>20.60760629166261</v>
+        <v>29.00700892100279</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.21690670451648</v>
+        <v>29.0070089172171</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.33373458465262</v>
+        <v>29.00700892551262</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>9.064001638505431</v>
+        <v>29.00700892599862</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>23.01864610985444</v>
+        <v>29.00700894919908</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>11.47684681831946</v>
+        <v>29.0070089157006</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>24.80297726214766</v>
+        <v>29.00700893815016</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>34.85814879643762</v>
+        <v>29.00700893540599</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.02757747260807</v>
+        <v>29.00700894379345</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>13.39500814995151</v>
+        <v>29.00700894428523</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>27.5964608169105</v>
+        <v>29.00700896773532</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>12.94654464092335</v>
+        <v>29.00700891908725</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.21545103972304</v>
+        <v>29.00700894140518</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.3443882104854</v>
+        <v>29.00700893883359</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.48348952810773</v>
+        <v>29.0070089471799</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>14.95611459252397</v>
+        <v>29.00700894768155</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.09562049034519</v>
+        <v>29.00700897099315</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>13.04258651172453</v>
+        <v>29.00700890302315</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.44240500213781</v>
+        <v>29.00700892545152</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.83329257560253</v>
+        <v>29.00700892186319</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.99749778417496</v>
+        <v>29.00700893025234</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>14.98319071996688</v>
+        <v>29.0070089307673</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.26932579562055</v>
+        <v>29.00700895419689</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>32.98084322426694</v>
+        <v>29.00700894531921</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>37.85786445252153</v>
+        <v>29.00700895478175</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.87056434120711</v>
+        <v>29.00700897380379</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.7516155738923</v>
+        <v>29.00700899599991</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.38911901356131</v>
+        <v>29.00700899281853</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.41146954806722</v>
+        <v>29.00700900243151</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.01780443669065</v>
+        <v>29.00700896494086</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.95856285651889</v>
+        <v>29.00700897450642</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.53839420793066</v>
+        <v>29.0070089920623</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>35.65645137463626</v>
+        <v>29.00700901449216</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>46.77059519124846</v>
+        <v>29.00700901235424</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>51.85229640268687</v>
+        <v>29.00700902206379</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.59468948768211</v>
+        <v>29.00700896837374</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.5009927281244</v>
+        <v>29.00700897789253</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>23.04476961883549</v>
+        <v>29.00700899510089</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>37.09915948812575</v>
+        <v>29.00700901739805</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>48.2855012129646</v>
+        <v>29.00700901542133</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>53.33018619050328</v>
+        <v>29.0070090250812</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.05151567904443</v>
+        <v>29.00700895051594</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.99012975438471</v>
+        <v>29.00700896008506</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>22.67395351485276</v>
+        <v>29.00700897893753</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.88022897482973</v>
+        <v>29.0070090013526</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>48.33331008420273</v>
+        <v>29.00700899836308</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>53.41596725760542</v>
+        <v>29.00700900808124</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.40594867695169</v>
+        <v>29.0070089187188</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.05577511336563</v>
+        <v>29.00700894171932</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>37.45424537901512</v>
+        <v>29.00700893914219</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>41.91147127509252</v>
+        <v>29.00700894799001</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.232691536361</v>
+        <v>29.00700894777376</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.78589511972782</v>
+        <v>29.00700897179432</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>17.77598874989307</v>
+        <v>29.00700893681654</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.67196877370665</v>
+        <v>29.00700896006202</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.55775442084254</v>
+        <v>29.00700895861369</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>47.07432751177687</v>
+        <v>29.00700896755435</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>19.99786219055312</v>
+        <v>29.0070089673068</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.80771162924248</v>
+        <v>29.00700899158066</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.30062230742124</v>
+        <v>29.00700894027962</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.13661004261289</v>
+        <v>29.00700896338853</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>44.1025657985474</v>
+        <v>29.00700896211678</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>48.5871519303382</v>
+        <v>29.00700897101282</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.6172877217386</v>
+        <v>29.0070089707762</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.36221150366467</v>
+        <v>29.00700899490632</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>19.34233170650379</v>
+        <v>29.00700892345699</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.31367030933904</v>
+        <v>29.00700894668528</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>44.55546157242107</v>
+        <v>29.00700894433515</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>49.06651749637838</v>
+        <v>29.00700895328232</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>21.58347559057345</v>
+        <v>29.0070089530825</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.48050499107725</v>
+        <v>29.00700897733974</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>40.58770675661562</v>
+        <v>29.00700896911082</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>45.84036910229112</v>
+        <v>29.00700897920535</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>22.69000012788526</v>
+        <v>29.00700899536132</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.16707927247388</v>
+        <v>29.00700901833526</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>48.69695740729233</v>
+        <v>29.00700901621025</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>54.06519594575398</v>
+        <v>29.00700902645025</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>46.11049798890409</v>
+        <v>29.00700899006883</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>51.43424543037277</v>
+        <v>29.00700900026767</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.79114047679622</v>
+        <v>29.00700901479546</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.51448960709502</v>
+        <v>29.0070090380063</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>54.56104524063151</v>
+        <v>29.00700903700168</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>59.99584880632395</v>
+        <v>29.00700904734006</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>47.74908067504724</v>
+        <v>29.00700899357354</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>53.0364177981058</v>
+        <v>29.00700900372179</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.35862103140386</v>
+        <v>29.00700901789982</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.0152856435783</v>
+        <v>29.00700904097285</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>56.1391504165579</v>
+        <v>29.00700904013318</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>61.53515792212701</v>
+        <v>29.00700905041813</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>48.16577069463452</v>
+        <v>29.00700897488431</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>53.48681063156571</v>
+        <v>29.00700898509211</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.90716016488184</v>
+        <v>29.00700900101869</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>43.72203972592677</v>
+        <v>29.00700902421856</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>56.12742553740435</v>
+        <v>29.00700902231144</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>61.56225091396254</v>
+        <v>29.0070090326633</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>9.11544865187043</v>
+        <v>29.00700891622817</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.52840646869698</v>
+        <v>29.00700893858226</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.69751393629095</v>
+        <v>29.00700893608576</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>37.11306929652224</v>
+        <v>29.00700894472792</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>10.98535693634081</v>
+        <v>29.00700894471598</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.2957663644202</v>
+        <v>29.00700896806222</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>13.41659899503155</v>
+        <v>29.00700893390656</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.07196148306445</v>
+        <v>29.00700895649821</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.72451743339014</v>
+        <v>29.00700895510832</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.19961084291694</v>
+        <v>29.00700896384116</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>15.68035321263604</v>
+        <v>29.0070089637991</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.24360971998752</v>
+        <v>29.00700898739107</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.95789989653495</v>
+        <v>29.0070089373231</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.55436512265069</v>
+        <v>29.0070089597819</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>39.28780753078572</v>
+        <v>29.00700895856543</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>43.7314049784721</v>
+        <v>29.00700896725481</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>17.31541815198496</v>
+        <v>29.00700896722125</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.81488220932671</v>
+        <v>29.00700899067337</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>14.92049661872902</v>
+        <v>29.00700892084275</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.64927412150914</v>
+        <v>29.007008943418</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>39.65369975677199</v>
+        <v>29.00700894114492</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>44.12285907872986</v>
+        <v>29.00700894988442</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.20301751772798</v>
+        <v>29.00700894988926</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.85142824192744</v>
+        <v>29.0070089734653</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>35.86232069232644</v>
+        <v>29.00700896545509</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>41.0713820250239</v>
+        <v>29.00700897532127</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>18.85686907113688</v>
+        <v>29.00700899150424</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.10292738546181</v>
+        <v>29.00700901383375</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>44.40939693911638</v>
+        <v>29.00700901177209</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>49.7338886711799</v>
+        <v>29.00700902178022</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.30717362559344</v>
+        <v>29.00700898593171</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>46.5875106459752</v>
+        <v>29.00700899589991</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>23.89242507313599</v>
+        <v>29.00700901049549</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.38115945166805</v>
+        <v>29.00700903305471</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>50.2003546478834</v>
+        <v>29.00700903209039</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>55.59171067483594</v>
+        <v>29.00700904219505</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.96323431247816</v>
+        <v>29.00700898938985</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.20766944796679</v>
+        <v>29.00700899930876</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.47411240991903</v>
+        <v>29.00700901355952</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>39.89724730883223</v>
+        <v>29.00700903598465</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>51.79441993430112</v>
+        <v>29.00700903518233</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>57.14750504468748</v>
+        <v>29.00700904523498</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.29302736344778</v>
+        <v>29.00700897108248</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>48.57023745861672</v>
+        <v>29.00700898105974</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.95467598119884</v>
+        <v>29.00700899702137</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.53301456928256</v>
+        <v>29.00700901957021</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>51.70694673824584</v>
+        <v>29.00700901772283</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>57.09785101597173</v>
+        <v>29.00700902784071</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>8.552608811545991</v>
+        <v>29.00700890315073</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.26846140128923</v>
+        <v>29.00700892635394</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>32.42512321095765</v>
+        <v>29.00700892282343</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>36.8068876448926</v>
+        <v>29.00700893159658</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.23560124609115</v>
+        <v>29.00700893187172</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.85882088813299</v>
+        <v>29.00700895610877</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>12.786150658511</v>
+        <v>29.007008921037</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.74977888933295</v>
+        <v>29.00700894449183</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>37.38047098925667</v>
+        <v>29.00700894206581</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>41.81913571526457</v>
+        <v>29.00700895093416</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.86111208845576</v>
+        <v>29.00700895120359</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.74276755751776</v>
+        <v>29.00700897570076</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>14.32876015100354</v>
+        <v>29.00700892456885</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.23237852690416</v>
+        <v>29.00700894788609</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>38.94167037045683</v>
+        <v>29.00700894563997</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>43.34833872598608</v>
+        <v>29.0070089544647</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.49942269025029</v>
+        <v>29.00700895474447</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.31611812843366</v>
+        <v>29.00700897909685</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>14.40687959692528</v>
+        <v>29.0070089076955</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.44766302646834</v>
+        <v>29.00700893112884</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>39.43188695399365</v>
+        <v>29.00700892781193</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.8647192020323</v>
+        <v>29.00700893668412</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.50452798312767</v>
+        <v>29.0070089369849</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.47501583157775</v>
+        <v>29.00700896146121</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.39901361214589</v>
+        <v>29.00700895247876</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>40.577248907965</v>
+        <v>29.00700896248536</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>18.12549184871403</v>
+        <v>29.00700898115202</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.67173345640012</v>
+        <v>29.00700900433711</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.92386426910829</v>
+        <v>29.00700900137736</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.24209312568594</v>
+        <v>29.00700901153935</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.77083832441524</v>
+        <v>29.0070089732201</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.01769809401733</v>
+        <v>29.00700898333355</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>23.09751298674281</v>
+        <v>29.00700900042884</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>37.89187505165216</v>
+        <v>29.00700902385737</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>49.64924571642466</v>
+        <v>29.0070090219999</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.0315566064252</v>
+        <v>29.00700903226241</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.4268523029584</v>
+        <v>29.00700897679858</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>47.63736363026354</v>
+        <v>29.00700898686252</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.68052599561333</v>
+        <v>29.00700900359749</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>39.40814261600751</v>
+        <v>29.00700902688727</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.24206507397834</v>
+        <v>29.00700902519771</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>56.58543780557645</v>
+        <v>29.00700903540774</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>42.88307109508049</v>
+        <v>29.00700895804619</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>48.12715011196741</v>
+        <v>29.00700896816558</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.26712975815993</v>
+        <v>29.00700898663594</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>39.15427164233748</v>
+        <v>29.00700901004955</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>51.2683976776075</v>
+        <v>29.00700900729624</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>56.65092976608818</v>
+        <v>29.00700901756963</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>7.743961722043771</v>
+        <v>29.00700890998305</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.77490819007892</v>
+        <v>29.00700893213208</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.60475964942412</v>
+        <v>29.00700892936282</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.8673680863467</v>
+        <v>29.00700893785479</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>9.44776536260369</v>
+        <v>29.00700893808508</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.35272262427261</v>
+        <v>29.00700896122184</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>11.89485697179189</v>
+        <v>29.00700892739912</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.1619244349124</v>
+        <v>29.00700894978534</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>35.45947913570766</v>
+        <v>29.00700894810363</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>39.77962517074108</v>
+        <v>29.00700895668573</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>13.98351436106432</v>
+        <v>29.00700895689773</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.13487744727971</v>
+        <v>29.00700898027991</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>13.40510226344795</v>
+        <v>29.00700893081261</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.61516893003254</v>
+        <v>29.00700895306732</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.99140122613055</v>
+        <v>29.007008951558</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>41.28100264935815</v>
+        <v>29.00700896009781</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>15.58614922733273</v>
+        <v>29.00700896031787</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.67577520330846</v>
+        <v>29.00700898356163</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>13.37066216702672</v>
+        <v>29.00700891447203</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.70929964195366</v>
+        <v>29.00700893684044</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>37.35001626048832</v>
+        <v>29.00700893428791</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.66342690450138</v>
+        <v>29.00700894287599</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>15.47561681652247</v>
+        <v>29.00700894312727</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.70992591509034</v>
+        <v>29.00700896649206</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.54650943641696</v>
+        <v>29.00700895833676</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.58704014984353</v>
+        <v>29.00700896803747</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>17.25604772327554</v>
+        <v>29.00700898511114</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.104927915278</v>
+        <v>29.00700900724451</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.01488283126631</v>
+        <v>29.00700900492704</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>47.17070405034585</v>
+        <v>29.00700901477262</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.80942735820859</v>
+        <v>29.00700897852416</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>43.91903213584633</v>
+        <v>29.0070089883262</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>22.12791033959141</v>
+        <v>29.00700900385148</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.21337227422471</v>
+        <v>29.00700902621438</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>47.61974356111123</v>
+        <v>29.00700902497783</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>52.84031497435117</v>
+        <v>29.00700903491914</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.43293902753802</v>
+        <v>29.00700898198079</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>45.5076837670102</v>
+        <v>29.00700899173479</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.67787562453097</v>
+        <v>29.00700900691402</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.69979378917259</v>
+        <v>29.00700902914422</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>49.18226704957244</v>
+        <v>29.00700902806885</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.36563406573509</v>
+        <v>29.00700903795934</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>40.7529880340829</v>
+        <v>29.00700896382475</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>45.85852696615752</v>
+        <v>29.00700897363514</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>23.17036101412374</v>
+        <v>29.00700899050265</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>37.34306229269192</v>
+        <v>29.00700901285379</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>49.09522439865309</v>
+        <v>29.00700901074464</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>54.31437247192375</v>
+        <v>29.00700902069856</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>8.721407951369077</v>
+        <v>29.00700891597498</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>22.05105831341674</v>
+        <v>29.00700893820669</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>32.17113527068927</v>
+        <v>29.00700893573899</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.57479851738786</v>
+        <v>29.00700894434512</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.51743896384255</v>
+        <v>29.00700894429565</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.74054492099764</v>
+        <v>29.00700896751401</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>13.00380868989427</v>
+        <v>29.00700893358308</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.57455027267903</v>
+        <v>29.00700895605111</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>37.1762427465106</v>
+        <v>29.00700895468558</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>41.6394861731626</v>
+        <v>29.00700896338229</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>15.19209688200141</v>
+        <v>29.00700896330311</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.66669814141055</v>
+        <v>29.00700898676596</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>14.54390068864326</v>
+        <v>29.00700893698969</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.05614784840539</v>
+        <v>29.0070089593256</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.73858736630128</v>
+        <v>29.00700895813258</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>43.17047191922542</v>
+        <v>29.00700896678611</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>16.82605572613259</v>
+        <v>29.00700896671574</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.23729318515966</v>
+        <v>29.00700899003951</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>14.50307782317702</v>
+        <v>29.0070089205682</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.14660960778396</v>
+        <v>29.00700894301987</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>39.09935296103738</v>
+        <v>29.0070089407747</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>43.556561099224</v>
+        <v>29.00700894947793</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.70878935148152</v>
+        <v>29.00700894944508</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>31.26787323662398</v>
+        <v>29.00700897289201</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.25038005198648</v>
+        <v>29.00700896493115</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>40.44563153572668</v>
+        <v>29.00700897475687</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>18.39102838425612</v>
+        <v>29.00700899090192</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>32.55190766485495</v>
+        <v>29.00700901310905</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>43.79956974738348</v>
+        <v>29.00700901106619</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>49.10841048768056</v>
+        <v>29.00700902103244</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>40.67159410333817</v>
+        <v>29.00700898532611</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>45.93815625143641</v>
+        <v>29.00700899525373</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.4056694529444</v>
+        <v>29.00700900981828</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>37.80793480161351</v>
+        <v>29.00700903225394</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>49.56631290445593</v>
+        <v>29.00700903130373</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>54.94207181361041</v>
+        <v>29.00700904136646</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>42.32685264100809</v>
+        <v>29.0070089887746</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>47.55766399538358</v>
+        <v>29.00700899865327</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>24.9863089729076</v>
+        <v>29.00700901287423</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>39.32340186837507</v>
+        <v>29.00700903517654</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>51.15964261601769</v>
+        <v>29.00700903438751</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>56.49729963203381</v>
+        <v>29.00700904439857</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>42.64978403306945</v>
+        <v>29.00700897053251</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>47.91309560929427</v>
+        <v>29.00700898046903</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>24.46349976899305</v>
+        <v>29.00700899639401</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>38.95470998312615</v>
+        <v>29.0070090188193</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>51.06681487957224</v>
+        <v>29.00700901698978</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>56.44195629001315</v>
+        <v>29.0070090270655</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>10.55434426198753</v>
+        <v>29.00700891141176</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>24.10602008672343</v>
+        <v>29.00700893440797</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.45889786788732</v>
+        <v>29.00700893159868</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>38.84035840109062</v>
+        <v>29.00700894034869</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>12.35203736406447</v>
+        <v>29.00700894034544</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.8035422862496</v>
+        <v>29.00700896436349</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>14.84261249180801</v>
+        <v>29.00700892938752</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.63953627973696</v>
+        <v>29.00700895262833</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>39.47630530921311</v>
+        <v>29.0070089509423</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>43.91571958654751</v>
+        <v>29.00700895978635</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>17.03627504328416</v>
+        <v>29.00700895976183</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.74352876908188</v>
+        <v>29.0070089840329</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>16.37709672038532</v>
+        <v>29.00700893287614</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>30.11459002056397</v>
+        <v>29.00700895598035</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>41.03108246418693</v>
+        <v>29.00700895447127</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>45.43891240982754</v>
+        <v>29.00700896327148</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>18.6656571787356</v>
+        <v>29.00700896325791</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>33.30856641190925</v>
+        <v>29.00700898738523</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>16.43395018656907</v>
+        <v>29.00700891604858</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.30463552029648</v>
+        <v>29.00700893927241</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.49870823321325</v>
+        <v>29.00700893668639</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>45.93260451186514</v>
+        <v>29.00700894553497</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>18.64563499528343</v>
+        <v>29.00700894555267</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.43830679422631</v>
+        <v>29.00700896980733</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>37.54746956507348</v>
+        <v>29.00700896144494</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>42.72645787830817</v>
+        <v>29.007008971434</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>20.2710657896631</v>
+        <v>29.00700898876994</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>34.65319800175213</v>
+        <v>29.00700901174282</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>46.12749457981344</v>
+        <v>29.00700900942388</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>51.42991044358237</v>
+        <v>29.0070090195598</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>42.98507725740674</v>
+        <v>29.00700898228099</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>48.23377869937536</v>
+        <v>29.00700899237561</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.30053536955574</v>
+        <v>29.00700900811403</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>39.92810033640307</v>
+        <v>29.00700903132346</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>51.91643451817765</v>
+        <v>29.0070090301221</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>57.28403581506642</v>
+        <v>29.0070090403575</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>44.63382656949213</v>
+        <v>29.00700898581284</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>49.84654101374149</v>
+        <v>29.0070089958577</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>26.87510417899693</v>
+        <v>29.00700901124293</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>41.43650326979572</v>
+        <v>29.00700903431461</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>53.5019316625613</v>
+        <v>29.00700903327859</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>58.83110222849155</v>
+        <v>29.00700904346135</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>45.06346817497791</v>
+        <v>29.00700896711328</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>50.30961809073185</v>
+        <v>29.00700897721471</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>26.43991660157515</v>
+        <v>29.00700899433891</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>41.15716937180268</v>
+        <v>29.00700901753774</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>53.50547291933114</v>
+        <v>29.00700901543383</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>58.873402897761</v>
+        <v>29.00700902568069</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>9.787635619379524</v>
+        <v>29.00700890688686</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>23.52259808191469</v>
+        <v>29.00700893009643</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>33.77086514355258</v>
+        <v>29.00700892680338</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>38.17708489170305</v>
+        <v>29.00700893560514</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>11.41815897767587</v>
+        <v>29.00700893566544</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.06006604157453</v>
+        <v>29.00700895990724</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>14.06729921562056</v>
+        <v>29.00700892487137</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>28.0504068215365</v>
+        <v>29.00700894833217</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>38.77653609308209</v>
+        <v>29.00700894615104</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>43.24041641647027</v>
+        <v>29.00700895504751</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>16.08971757562311</v>
+        <v>29.00700895509527</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>30.99040418999205</v>
+        <v>29.00700897959677</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>15.61025168969273</v>
+        <v>29.00700892839541</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>29.53327164604437</v>
+        <v>29.00700895171862</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>40.33840410389158</v>
+        <v>29.00700894971672</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>44.77020194100214</v>
+        <v>29.00700895856934</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>17.72888860974804</v>
+        <v>29.00700895862805</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>32.56454524545782</v>
+        <v>29.00700898298475</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>15.68311628179539</v>
+        <v>29.00700891149096</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.7433292265025</v>
+        <v>29.00700893493076</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>40.82495723060538</v>
+        <v>29.00700893185491</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>45.28267027164173</v>
+        <v>29.00700894075598</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>17.72748606610376</v>
+        <v>29.00700894083856</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>32.71702872238614</v>
+        <v>29.00700896531967</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>36.69027705063125</v>
+        <v>29.00700895651074</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>41.89449306275658</v>
+        <v>29.0070089665513</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>19.12984000675583</v>
+        <v>29.00700898456314</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>33.69296473316036</v>
+        <v>29.00700900775122</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>45.03185469601511</v>
+        <v>29.0070090049925</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>50.37144443805445</v>
+        <v>29.00700901518786</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>42.11221747294528</v>
+        <v>29.0070089773565</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>47.38584593461108</v>
+        <v>29.00700898750343</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>24.14413198386403</v>
+        <v>29.00700900392696</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>38.9556439533209</v>
+        <v>29.00700902735807</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>50.80304148818319</v>
+        <v>29.0070090257072</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>56.20751658447244</v>
+        <v>29.00700903600273</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>43.76944363934992</v>
+        <v>29.00700898092619</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>49.00660596846721</v>
+        <v>29.00700899102335</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>25.72913823893003</v>
+        <v>29.00700900708875</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.47384908595389</v>
+        <v>29.0070090303811</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>52.39810318227971</v>
+        <v>29.00700902889752</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>57.76355405205578</v>
+        <v>29.00700903914035</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>44.22080329072255</v>
+        <v>29.00700896214163</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>49.49124167158116</v>
+        <v>29.00700897229534</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>25.30855922951987</v>
+        <v>29.0070089901015</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>40.21300349346551</v>
+        <v>29.00700901351812</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>52.41890097882624</v>
+        <v>29.00700901096878</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>57.82308347630199</v>
+        <v>29.00700902127591</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.145</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.438</v>
+        <v>18.676</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.027</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.002</v>
+        <v>17.137</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.021</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.802</v>
+        <v>15.522</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.00700891532679</v>
+        <v>-7.401229150815265</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.00700893797695</v>
+        <v>13.31810731825527</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.00700893541635</v>
+        <v>26.4696364323748</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.00700894417217</v>
+        <v>31.43354685948975</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.0070089440977</v>
+        <v>-6.014934876916367</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.00700896775339</v>
+        <v>16.45600744189199</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.00700893323514</v>
+        <v>1.018964247942296</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.00700895612666</v>
+        <v>23.9401464388631</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.00700895468482</v>
+        <v>41.20316870694359</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.00700896353294</v>
+        <v>45.64018451575622</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.00700896342961</v>
+        <v>5.171746933232878</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.00700898733498</v>
+        <v>29.99132841672198</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.00700893669545</v>
+        <v>1.629547460974916</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.0070089594524</v>
+        <v>24.99091841518942</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.00700895818589</v>
+        <v>42.71022934513792</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.00700896699013</v>
+        <v>47.12978658087347</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.0070089668964</v>
+        <v>6.134712416437491</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.00700899066012</v>
+        <v>31.41450166684945</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.00700891999367</v>
+        <v>-2.23512561838584</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.00700894286802</v>
+        <v>19.88112471875017</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.00700894053255</v>
+        <v>34.16969668166846</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.00700894938718</v>
+        <v>39.33072546584533</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.00700894933017</v>
+        <v>0.5619398682411756</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.00700897321882</v>
+        <v>24.52312836543027</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.00700896507798</v>
+        <v>28.50809478550007</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.00700897507222</v>
+        <v>37.79247395205772</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.00700899151349</v>
+        <v>-1.894297652062917</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.00700901413896</v>
+        <v>23.28428334844655</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.00700901201723</v>
+        <v>40.06730795077545</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.00700902215528</v>
+        <v>49.6439192368403</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.00700898582025</v>
+        <v>46.39770187137752</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.00700899591827</v>
+        <v>55.17303474451302</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.00700901075222</v>
+        <v>11.63882880331602</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.00700903361111</v>
+        <v>39.13263074365551</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.00700903259895</v>
+        <v>60.6256831946413</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.00700904283519</v>
+        <v>69.59992334942056</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.00700898932319</v>
+        <v>48.22380257918367</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.00700899937147</v>
+        <v>56.9841529359812</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.00700901385614</v>
+        <v>13.59414956410107</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.00700903657921</v>
+        <v>41.52177576118601</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.00700903573084</v>
+        <v>63.48438416674813</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.00700904591455</v>
+        <v>72.41687032658727</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.00700897076946</v>
+        <v>37.49775207165403</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.00700898087641</v>
+        <v>47.08190125521976</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.00700899709464</v>
+        <v>7.404609693906419</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.00700901994249</v>
+        <v>34.07701992735065</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.00700901803667</v>
+        <v>52.04603204762802</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.00700902828608</v>
+        <v>61.86978550377856</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.00700890388966</v>
+        <v>-0.5782235618788079</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.00700892686515</v>
+        <v>22.10419585157987</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.00700892322273</v>
+        <v>34.70638021472999</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.00700893178249</v>
+        <v>38.76379556067999</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.00700893215136</v>
+        <v>-2.894510808274436</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.00700895615239</v>
+        <v>21.46855737024086</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.00700892138555</v>
+        <v>6.899988881333634</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.00700894460884</v>
+        <v>31.77872028482611</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.00700894204815</v>
+        <v>48.39254066181847</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.00700895070167</v>
+        <v>51.89897340942795</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.00700895106673</v>
+        <v>7.195885097503238</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.00700897532383</v>
+        <v>33.90575368523523</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.00700892483394</v>
+        <v>7.199716135393766</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.00700894792104</v>
+        <v>32.49644330977026</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.00700894553719</v>
+        <v>49.56289284116286</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.00700895414774</v>
+        <v>53.04918512782238</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.00700895452327</v>
+        <v>7.850399152844963</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.00700897863707</v>
+        <v>34.99989876476991</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.00700890831697</v>
+        <v>3.90222795226839</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.00700893152035</v>
+        <v>27.97127206335921</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.00700892808514</v>
+        <v>41.6872580974298</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.00700893674077</v>
+        <v>45.91642353333408</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.00700893713681</v>
+        <v>2.904722099714366</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.00700896137481</v>
+        <v>28.74837360224305</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.00700895242424</v>
+        <v>33.29550780456294</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.00700896218692</v>
+        <v>41.24336743813127</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.00700898089999</v>
+        <v>0.7822759901792686</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.00700900386108</v>
+        <v>27.76826904432735</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.00700900082899</v>
+        <v>44.05874804119379</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.00700901074431</v>
+        <v>52.38614511471008</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.0070089727228</v>
+        <v>49.98847620272174</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.00700898259048</v>
+        <v>57.39942203585763</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.00700899977299</v>
+        <v>13.08231699371567</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.00700902297383</v>
+        <v>42.38363770621675</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.00700902102528</v>
+        <v>63.27986796904896</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.00700903103868</v>
+        <v>70.97453834537725</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.00700897621544</v>
+        <v>51.47916738566262</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.00700898603426</v>
+        <v>58.8749159364301</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.00700900286305</v>
+        <v>14.69854594973551</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.00700902592661</v>
+        <v>44.41498352590375</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.00700902414332</v>
+        <v>65.77522847726256</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.00700903410487</v>
+        <v>73.42619996267719</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.00700895785562</v>
+        <v>41.47678623142382</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.00700896772742</v>
+        <v>49.6954328756234</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.00700898625494</v>
+        <v>9.271187108617669</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.00700900944245</v>
+        <v>37.74391820870243</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.00700900661182</v>
+        <v>55.19767825549235</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.00700901663475</v>
+        <v>63.74021595130613</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.00700890388966</v>
+        <v>-1.978184646187103</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.00700892686515</v>
+        <v>20.57724246965125</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.00700892322273</v>
+        <v>33.25850021581056</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.00700893178249</v>
+        <v>37.23833432331031</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.00700893215136</v>
+        <v>-3.159905965222528</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.00700895615239</v>
+        <v>21.10881736793107</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.00700892138555</v>
+        <v>5.541959033881298</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.00700894460884</v>
+        <v>30.29764035944166</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.00700894204815</v>
+        <v>46.99483573044932</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.00700895070167</v>
+        <v>50.42398978987796</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.00700895106673</v>
+        <v>6.972253779327218</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.00700897532383</v>
+        <v>33.59198817929686</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.00700892483394</v>
+        <v>5.865133710591213</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.00700894792104</v>
+        <v>31.04129974035963</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.00700894553719</v>
+        <v>48.19135922102886</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.00700895414774</v>
+        <v>51.60118571079846</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.00700895452327</v>
+        <v>7.643271801755333</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.00700897863707</v>
+        <v>34.70493301940209</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.00700890831697</v>
+        <v>2.530096667824928</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.00700893152035</v>
+        <v>26.47530784820503</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.00700892808514</v>
+        <v>40.2733474698186</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.00700893674077</v>
+        <v>44.42501421701516</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.00700893713681</v>
+        <v>2.677219897473602</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.00700896137481</v>
+        <v>28.42990982784477</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.00700895242424</v>
+        <v>33.08841017341697</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.00700896218692</v>
+        <v>40.93758524377137</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.00700898089999</v>
+        <v>0.6485753837112895</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.00700900386108</v>
+        <v>27.55995655699294</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.00700900082899</v>
+        <v>43.98876605195758</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.00700901074431</v>
+        <v>52.23790157402578</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.0070089727228</v>
+        <v>49.83226856245815</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.00700898259048</v>
+        <v>57.14402389693359</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.00700899977299</v>
+        <v>12.99701099075547</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.00700902297383</v>
+        <v>42.22849864650935</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.00700902102528</v>
+        <v>63.2688517257295</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.00700903103868</v>
+        <v>70.88464308843446</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.00700897621544</v>
+        <v>51.34195835295617</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.00700898603426</v>
+        <v>58.63920264292997</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.00700900286305</v>
+        <v>14.62842088441583</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.00700902592661</v>
+        <v>44.27732329557155</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.00700902414332</v>
+        <v>65.78197110057687</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.00700903410487</v>
+        <v>73.35448716855228</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.00700895785562</v>
+        <v>41.31535463609585</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.00700896772742</v>
+        <v>49.4347273782717</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.00700898625494</v>
+        <v>9.173719025288465</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.00700900944245</v>
+        <v>37.57558847320078</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.00700900661182</v>
+        <v>55.17185173785873</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.00700901663475</v>
+        <v>63.63534461984608</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.00700890949199</v>
+        <v>-13.05458741067961</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.00700893229294</v>
+        <v>7.196153105137551</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.0070089294845</v>
+        <v>20.19140471078656</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.00700893825748</v>
+        <v>24.93625022917096</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.00700893847918</v>
+        <v>-11.82969255578363</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.00700896229578</v>
+        <v>10.1230424715605</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.00700892743224</v>
+        <v>-4.891490113840998</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.00700895047598</v>
+        <v>17.54202293931209</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.0070089487905</v>
+        <v>34.62718154075526</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.00700895765646</v>
+        <v>38.84530001190804</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.00700895785218</v>
+        <v>-0.9575972821575256</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.00700898191992</v>
+        <v>23.3228339337133</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.00700893094367</v>
+        <v>-4.259998584594697</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.00700895385188</v>
+        <v>18.61267409075223</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.00700895234437</v>
+        <v>36.15629747541502</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.0070089611663</v>
+        <v>40.35654819572692</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.00700896136949</v>
+        <v>0.0184916271831419</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.00700898529456</v>
+        <v>24.75835668513436</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.00700891412778</v>
+        <v>-7.959586044910317</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.00700893715432</v>
+        <v>13.67706179848458</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.00700893457039</v>
+        <v>27.81170321318459</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.00700894344227</v>
+        <v>32.74906889085949</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.00700894368378</v>
+        <v>-5.349336272283821</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.00700896773484</v>
+        <v>18.08207273010676</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.00700895937304</v>
+        <v>22.0985732570091</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.00700896939147</v>
+        <v>31.11994232366785</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.00700898683218</v>
+        <v>-7.195974146026426</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.00700900961439</v>
+        <v>17.47728583036209</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.00700900728451</v>
+        <v>34.15787794518802</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.00700901745021</v>
+        <v>43.47279656581382</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.00700898016276</v>
+        <v>39.62928368325334</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.00700899028574</v>
+        <v>48.14198134124495</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.00700900612458</v>
+        <v>6.014002583563808</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.00700902914161</v>
+        <v>32.98165804324888</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.00700902792753</v>
+        <v>54.34974931331033</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.00700903819196</v>
+        <v>63.06280873618567</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.00700898371788</v>
+        <v>41.46974966247545</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.0070089937909</v>
+        <v>49.96687332873834</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.00700900927378</v>
+        <v>7.976087462500082</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.00700903215401</v>
+        <v>35.37663536040996</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.00700903110627</v>
+        <v>57.21642777351819</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.00700904131791</v>
+        <v>65.88715523627093</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.00700896503763</v>
+        <v>30.98400463753208</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.00700897516891</v>
+        <v>40.29912308869139</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.00700899239527</v>
+        <v>2.005493167174041</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.00700901540131</v>
+        <v>28.16093062350345</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.00700901328739</v>
+        <v>46.03103469748481</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.00700902356456</v>
+        <v>55.58703241239371</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.00700891702983</v>
+        <v>-1.71244624798954</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.00700893967178</v>
+        <v>20.07246025161862</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.00700893707283</v>
+        <v>33.4448725899031</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.00700894579767</v>
+        <v>38.16793491392242</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.00700894583839</v>
+        <v>-0.143843370158713</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.00700896948609</v>
+        <v>23.33916514569716</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.0070089348546</v>
+        <v>6.786406421111206</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.00700895773767</v>
+        <v>30.77544447674149</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.00700895625238</v>
+        <v>48.26243688431315</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.00700896506833</v>
+        <v>52.4440121754194</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.00700896507829</v>
+        <v>11.01854078962618</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.00700898897533</v>
+        <v>36.84936548274798</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.00700893828851</v>
+        <v>7.428444310806112</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.00700896103708</v>
+        <v>31.84946735560321</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.00700895972687</v>
+        <v>49.79982206461138</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.00700896849878</v>
+        <v>53.95928277164445</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.007008968517</v>
+        <v>11.99139036223501</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.00700899227245</v>
+        <v>38.27414485503451</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.00700892168876</v>
+        <v>3.630125831647174</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.00700894455482</v>
+        <v>26.81408717355095</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.00700894217994</v>
+        <v>41.34135250660987</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.00700895100276</v>
+        <v>46.24812424424785</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.00700895106066</v>
+        <v>6.547375013821004</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.00700897494123</v>
+        <v>31.52131540245179</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.00700896678653</v>
+        <v>35.8159354532873</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.00700897674439</v>
+        <v>44.73427412583268</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.00700899294898</v>
+        <v>2.865410367178583</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.00700901556702</v>
+        <v>28.99352445248639</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.00700901342354</v>
+        <v>46.13270736839914</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.00700902352767</v>
+        <v>55.34113285373728</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.00700898743147</v>
+        <v>53.68369994176328</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.00700899749179</v>
+        <v>62.07539502801221</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.00700901209327</v>
+        <v>16.3038639294628</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.00700903494452</v>
+        <v>44.74613147365622</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.00700903390614</v>
+        <v>66.59498489584077</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.00700904410704</v>
+        <v>75.18358190231824</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.00700899090602</v>
+        <v>55.51791969552774</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.00700901517086</v>
+        <v>18.25846120566938</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.00700903788635</v>
+        <v>47.12611560518133</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.00700903701143</v>
+        <v>69.45123710722248</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.00700904715963</v>
+        <v>77.99325492908314</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.00700897246674</v>
+        <v>44.94052875908025</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.00700898253637</v>
+        <v>54.14236641230683</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.00700899851656</v>
+        <v>12.2337656563341</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.00700902135689</v>
+        <v>39.85467156541474</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.00700901942847</v>
+        <v>58.19915116013439</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.00700902964305</v>
+        <v>67.63836437181378</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.00700891105518</v>
+        <v>1.719590548318457</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.00700893392433</v>
+        <v>24.72671894677423</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.00700893073223</v>
+        <v>37.67899299854234</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.00700893928078</v>
+        <v>41.29066423709801</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.00700893967572</v>
+        <v>2.935753547334389</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.00700896356591</v>
+        <v>27.60294695356287</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.00700892857951</v>
+        <v>9.20316748662049</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.00700895169249</v>
+        <v>34.34496928356047</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.00700894959235</v>
+        <v>51.24645388697216</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.00700895823246</v>
+        <v>54.30687356305484</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.00700895860967</v>
+        <v>12.93104750532804</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.00700898275187</v>
+        <v>39.87495264581989</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.00700893198395</v>
+        <v>9.61015435652266</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.00700895496121</v>
+        <v>35.15423833069191</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.00700895303616</v>
+        <v>52.50590890088991</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.00700896163286</v>
+        <v>55.5409380845576</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.00700896201853</v>
+        <v>13.65192610997824</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.0070089860179</v>
+        <v>41.01857518549158</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.00700891555388</v>
+        <v>6.433647554234806</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.00700893864957</v>
+        <v>30.79688050586024</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.00700893567078</v>
+        <v>44.86954453788123</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.00700894431453</v>
+        <v>48.63052613729739</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.00700894473335</v>
+        <v>8.918733717459698</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.00700896885907</v>
+        <v>35.03287668661646</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.00700896029996</v>
+        <v>39.94178363618961</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.00700897005563</v>
+        <v>47.3436765823834</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.00700898757227</v>
+        <v>5.686133844317414</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.00700901042577</v>
+        <v>32.84267262580089</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.00700900780348</v>
+        <v>49.46211999833223</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.00700901771267</v>
+        <v>57.20850440674096</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.00700898062246</v>
+        <v>56.39748978296534</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.00700899048071</v>
+        <v>63.2604534876827</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.00700900644383</v>
+        <v>17.81116666347261</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.00700902800229</v>
+        <v>68.35121172602976</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.00700903800738</v>
+        <v>75.46599369346987</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.00700898406594</v>
+        <v>57.93624964310398</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.00700899387488</v>
+        <v>64.77736571367984</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.00700900949051</v>
+        <v>19.46625174272912</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.00700903244308</v>
+        <v>49.26676987794481</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.00700903107561</v>
+        <v>70.86587449703875</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.00700904102844</v>
+        <v>77.93140856200102</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.00700896580809</v>
+        <v>48.28651802044428</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.00700897567224</v>
+        <v>55.93155084104107</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.00700899298904</v>
+        <v>14.24653406218084</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.00700901606753</v>
+        <v>42.85397671264585</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.00700901365197</v>
+        <v>60.64285562769925</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.00700902366822</v>
+        <v>68.57844436257692</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.00700890718412</v>
+        <v>-10.78285663493889</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.00700893007193</v>
+        <v>9.619869310213065</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.007008926967</v>
+        <v>22.1919802149719</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.00700893558597</v>
+        <v>26.33742473648348</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.00700893571907</v>
+        <v>-8.571035363704254</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.00700895962743</v>
+        <v>13.64138660222127</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.00700892489844</v>
+        <v>-3.447889633828304</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.00700894803063</v>
+        <v>19.08377867146233</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.00700894602926</v>
+        <v>35.59658693675629</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.00700895474247</v>
+        <v>39.22774931804375</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.00700895486216</v>
+        <v>1.503424885893029</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.00700897902329</v>
+        <v>25.99345877425997</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.00700892836286</v>
+        <v>-3.100784499729233</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.00700895135919</v>
+        <v>19.85406181631009</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.00700894953346</v>
+        <v>36.79945769563516</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.00700895820364</v>
+        <v>40.41635352906017</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.00700895833486</v>
+        <v>2.201623293454855</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.00700898235303</v>
+        <v>27.13520613794312</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.00700891170089</v>
+        <v>-6.43961897136316</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.00700893481542</v>
+        <v>15.3160749176843</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.00700893192622</v>
+        <v>28.96773782164819</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.00700894064227</v>
+        <v>33.29336319192035</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.00700894079989</v>
+        <v>-2.815863045792945</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.007008964944</v>
+        <v>20.84369807243781</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.00700895641637</v>
+        <v>25.22502691651655</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.00700896625473</v>
+        <v>33.43840004072783</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.00700898430937</v>
+        <v>-3.404678293315062</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.00700900717974</v>
+        <v>21.45339519596876</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.00700900460689</v>
+        <v>37.45194330865385</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.00700901459319</v>
+        <v>46.02692005991643</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.0070089769601</v>
+        <v>41.75165793683743</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.00700898690405</v>
+        <v>49.47006518010398</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.00700900339558</v>
+        <v>8.961556023477902</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.00700902650237</v>
+        <v>36.06714212781165</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.007009025031</v>
+        <v>56.58443960536469</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.00700903511641</v>
+        <v>64.57129371220975</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.00700898046813</v>
+        <v>43.27222600954077</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.00700899036317</v>
+        <v>50.98030627759258</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.0070090065021</v>
+        <v>10.61720902425807</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.00700902947193</v>
+        <v>38.14252286705993</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.00700902816477</v>
+        <v>59.10412541049516</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.00700903819834</v>
+        <v>67.05289270702535</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.00700896195013</v>
+        <v>33.29851423751372</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.0070089718991</v>
+        <v>41.79176536208122</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.00700898975696</v>
+        <v>5.025746765149737</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.00700901285257</v>
+        <v>31.33914407829248</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.00700901048836</v>
+        <v>48.46429038385581</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.00700902058377</v>
+        <v>57.26526735514165</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.00700891330315</v>
+        <v>-10.7162874583464</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.00700893634102</v>
+        <v>10.93480986964341</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.00700893353476</v>
+        <v>24.09992124133555</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.00700894236578</v>
+        <v>28.68981448787512</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.00700894253426</v>
+        <v>-9.927326641277073</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.00700896659733</v>
+        <v>13.43123625776233</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.00700893135269</v>
+        <v>-2.469920130754655</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.00700895463614</v>
+        <v>21.39517406714276</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.00700895295738</v>
+        <v>38.6830285489078</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.0070089618812</v>
+        <v>42.72770122376362</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.00700896202166</v>
+        <v>0.99063395651417</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.00700898633866</v>
+        <v>26.70883841047032</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.007008934851</v>
+        <v>-1.830356317146794</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.00700895799759</v>
+        <v>22.47016826033912</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.00700895649723</v>
+        <v>40.22313241370148</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.0070089653765</v>
+        <v>44.24696567181786</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.00700896552489</v>
+        <v>1.968196198914953</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.00700898969783</v>
+        <v>28.14218344795939</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.00700891799308</v>
+        <v>-5.527829647968467</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.007008941259</v>
+        <v>17.5276473161429</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.00700893867808</v>
+        <v>31.8473032808717</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.00700894760822</v>
+        <v>36.62199371717902</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.00700894779586</v>
+        <v>-3.384750337186063</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.00700897209592</v>
+        <v>21.47108138544655</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.00700896369159</v>
+        <v>25.67715550220079</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.00700897377191</v>
+        <v>34.46615182931416</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.00700899074929</v>
+        <v>-6.218263539068371</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.007009013766</v>
+        <v>19.82129883470675</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.00700901144856</v>
+        <v>36.74698575287523</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.0070090216797</v>
+        <v>45.85304767434009</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.00700898460365</v>
+        <v>43.3210759746479</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.00700899478828</v>
+        <v>51.58025531574723</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.00700901014853</v>
+        <v>7.002610531791955</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.00700903340277</v>
+        <v>35.36805850764721</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.0070090322058</v>
+        <v>57.01547235052286</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.00700904253531</v>
+        <v>65.49799378374323</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.00700898814361</v>
+        <v>45.16492008648017</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.00700899827771</v>
+        <v>53.4058792371309</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.00700901328353</v>
+        <v>8.966587336921485</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.00700903639966</v>
+        <v>37.76118371302006</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.00700903536927</v>
+        <v>59.88647856530832</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.00700904564539</v>
+        <v>68.32371500122089</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.00700896941665</v>
+        <v>34.65704208379893</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.00700897961005</v>
+        <v>43.73154518357076</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.0070089963665</v>
+        <v>3.034437924092138</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.00700901960946</v>
+        <v>30.57376658597245</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.00700901750872</v>
+        <v>48.7040536551295</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.00700902785159</v>
+        <v>58.0426618468897</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.0070089172244</v>
+        <v>7.348699938742101</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.00700893987634</v>
+        <v>30.91973383662031</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.00700893693919</v>
+        <v>44.26041978665128</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.00700894542207</v>
+        <v>47.93854621871746</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.00700894523646</v>
+        <v>4.286545467033584</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.00700896889557</v>
+        <v>29.56433392401951</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.00700893464708</v>
+        <v>15.11773559792869</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.00700895754052</v>
+        <v>40.86519079206089</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.00700895568568</v>
+        <v>58.21357667626393</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.00700896425992</v>
+        <v>61.33623995254626</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.00700896405431</v>
+        <v>14.61086465130455</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.00700898796303</v>
+        <v>42.21201491406945</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.00700893797987</v>
+        <v>15.47258126599624</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.007008960739</v>
+        <v>41.62963974482479</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.00700895905534</v>
+        <v>59.42871034470311</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.00700896758662</v>
+        <v>62.52832695978343</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.00700896739446</v>
+        <v>15.32603532331436</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.00700899116185</v>
+        <v>43.35777022072521</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.00700892172735</v>
+        <v>12.08467408965834</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.00700894460387</v>
+        <v>37.03911595662178</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.00700894187902</v>
+        <v>51.50988385017055</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.00700895045649</v>
+        <v>55.34345409109514</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.00700895029138</v>
+        <v>10.33476397650726</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.00700897418397</v>
+        <v>37.08901837227936</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.00700896587212</v>
+        <v>41.96460716357745</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.00700897554562</v>
+        <v>49.45724855805194</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.00700899208542</v>
+        <v>7.063034906686843</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.00700901471579</v>
+        <v>34.85805635229877</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.00700901230281</v>
+        <v>51.66763954213429</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.00700902212115</v>
+        <v>59.51766599344907</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.007008986066</v>
+        <v>58.85322251735805</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.00700899584173</v>
+        <v>65.80164731073965</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.00700901083196</v>
+        <v>19.54914743420697</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.00700903369594</v>
+        <v>49.63625375683687</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.00700903236383</v>
+        <v>71.02606640847752</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.00700904227763</v>
+        <v>78.23700990541037</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.00700898943852</v>
+        <v>60.39509058840919</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.00700899916548</v>
+        <v>67.32452220281007</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.00700901381649</v>
+        <v>21.20996600475468</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.0070090365451</v>
+        <v>51.70379119012331</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.007009035373</v>
+        <v>73.55593961667984</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.0070090452351</v>
+        <v>80.71953767366283</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.00700897137444</v>
+        <v>50.40887198048692</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.00700898115563</v>
+        <v>58.15264594130331</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.00700899748993</v>
+        <v>15.72076380355789</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.00700902034333</v>
+        <v>44.99767281843958</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.00700901813579</v>
+        <v>62.9854251346933</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.00700902806028</v>
+        <v>71.03091916008789</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.00700889554353</v>
+        <v>-12.54578238886038</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.00700891760705</v>
+        <v>6.775630272781978</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.00700891387756</v>
+        <v>17.95186660616507</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.00700892216353</v>
+        <v>22.55307331109796</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.00700892272273</v>
+        <v>-11.15838439718918</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.00700894577279</v>
+        <v>9.864593603623227</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.00700891246074</v>
+        <v>-5.467147983122736</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.00700893476462</v>
+        <v>15.94535882066199</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.00700893207887</v>
+        <v>30.92826782264848</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.00700894045732</v>
+        <v>35.03325017405275</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.00700894102361</v>
+        <v>-1.378619109863276</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.00700896432221</v>
+        <v>21.88336085875392</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.00700891587667</v>
+        <v>-5.185254011539911</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.00700893804969</v>
+        <v>16.64079852717959</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.00700893553641</v>
+        <v>32.04424022219426</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.00700894387423</v>
+        <v>36.13825956036396</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.00700894444969</v>
+        <v>-0.7571901368207747</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.0070089676106</v>
+        <v>22.93853380719804</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.00700889975388</v>
+        <v>-8.542402067364325</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.00700892203623</v>
+        <v>12.08979468347014</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.00700891850486</v>
+        <v>24.28643611521288</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.00700892688507</v>
+        <v>29.08300865895761</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.00700892747396</v>
+        <v>-5.810137074858456</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.00700895075161</v>
+        <v>16.61456929168925</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.00700894193865</v>
+        <v>20.20193851410496</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.0070089513959</v>
+        <v>28.78263504155684</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.00700897072554</v>
+        <v>-6.413621105384745</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.00700899277734</v>
+        <v>17.22434255677348</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.00700898963139</v>
+        <v>31.89122448974547</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.00700899923959</v>
+        <v>40.84231180768465</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.00700896157504</v>
+        <v>36.26389560440303</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.00700897113605</v>
+        <v>44.36903532504891</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.00700898900071</v>
+        <v>5.590087474228714</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.00700901128507</v>
+        <v>31.4367305399543</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.00700900918328</v>
+        <v>50.4872002979473</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.00700901888916</v>
+        <v>58.87320398751716</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.00700896503842</v>
+        <v>37.68592134544051</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.00700897455321</v>
+        <v>45.78532967025761</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.00700899206823</v>
+        <v>7.151920749086171</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.00700901422066</v>
+        <v>33.40852518474109</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.00700901227994</v>
+        <v>52.88979982128661</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.00700902193674</v>
+        <v>61.243732779461</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.00700894711697</v>
+        <v>27.76695201888165</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.00700895668154</v>
+        <v>36.64337566382768</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.00700897584447</v>
+        <v>1.577144960073003</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.00700899811372</v>
+        <v>26.62423585844891</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.00700899515991</v>
+        <v>42.35491906557897</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.00700900487412</v>
+        <v>51.55111720304718</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.00700889969972</v>
+        <v>-2.84263551798232</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.00700892216327</v>
+        <v>18.87595284594559</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.00700891836562</v>
+        <v>30.98648886408578</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.00700892671853</v>
+        <v>34.97300312030088</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.0070089275298</v>
+        <v>-1.025414704389263</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.00700895099929</v>
+        <v>22.3438202245013</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.00700891673972</v>
+        <v>4.378538038983805</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.00700893944596</v>
+        <v>28.23534598728344</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.00700893670327</v>
+        <v>44.25160449159583</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.00700894514757</v>
+        <v>47.70185918511503</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.00700894595893</v>
+        <v>8.732218200454362</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.0070089696792</v>
+        <v>34.38490789527106</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.00700892014609</v>
+        <v>4.705720332080865</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.0070089427191</v>
+        <v>28.97163321256605</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.00700894015121</v>
+        <v>45.43278754811986</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.00700894855354</v>
+        <v>48.86252614190082</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.00700894937143</v>
+        <v>9.367011762152092</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.0070089729515</v>
+        <v>35.4495785424017</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.00700890397877</v>
+        <v>1.55970578547722</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.00700892666503</v>
+        <v>24.62629136793664</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.0070089230682</v>
+        <v>37.82512202282985</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.00700893151464</v>
+        <v>41.97916328912633</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.00700893235539</v>
+        <v>4.64770911564165</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.00700895605648</v>
+        <v>29.4560303602887</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.0070089471266</v>
+        <v>34.01319064588549</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.00700895665826</v>
+        <v>41.79271869037141</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.00700897574503</v>
+        <v>2.393504104146398</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.00700899819947</v>
+        <v>28.34851385758806</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.00700899503541</v>
+        <v>44.31102490346323</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.00700900472177</v>
+        <v>52.46841644704153</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.00700896690599</v>
+        <v>50.20198455999039</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.00700897654006</v>
+        <v>57.45952119271382</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.00700899414302</v>
+        <v>14.30154506599469</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.0070090168323</v>
+        <v>42.50946414812807</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.00700901472594</v>
+        <v>62.96258994849971</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.00700902450807</v>
+        <v>70.50501446294939</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.00700897035546</v>
+        <v>51.65580499250537</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.00700897994181</v>
+        <v>58.89732293651997</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.00700899719437</v>
+        <v>15.87465166347171</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.00700901974932</v>
+        <v>44.48804640394745</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.0070090178062</v>
+        <v>65.39648784979775</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.00700902753767</v>
+        <v>72.89533506372275</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.00700895238636</v>
+        <v>42.00943932492845</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.00700896202454</v>
+        <v>50.05223561769321</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.00700898093792</v>
+        <v>10.6898990608779</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.00700900361365</v>
+        <v>38.08942048989015</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.00700900064517</v>
+        <v>55.19039182557995</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.00700901043667</v>
+        <v>63.55733922810494</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.00700889617221</v>
+        <v>-12.52562050636115</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.00700891837503</v>
+        <v>7.498054890880637</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.00700891457856</v>
+        <v>19.3032922225128</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.00700892282392</v>
+        <v>23.26776655260647</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.00700892342074</v>
+        <v>-13.3358348256658</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.00700894661839</v>
+        <v>8.359771236453053</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.00700891304752</v>
+        <v>-5.675556811322213</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.00700893548988</v>
+        <v>16.45160535260838</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.00700893273902</v>
+        <v>32.11892290007176</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.00700894107659</v>
+        <v>35.57112505855503</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.00700894167699</v>
+        <v>-3.890030780135309</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.00700896512225</v>
+        <v>20.05639229985174</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.00700891644651</v>
+        <v>-5.405381560077188</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.00700893875717</v>
+        <v>17.13706703937531</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.00700893617927</v>
+        <v>33.23798481303329</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.00700894447577</v>
+        <v>36.67597746529601</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.0070089450853</v>
+        <v>-3.270450141151709</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.00700896839199</v>
+        <v>21.11252734131601</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.00700890036963</v>
+        <v>-8.479139578793497</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.00700892279258</v>
+        <v>12.87414049557851</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.00700891919423</v>
+        <v>25.74228789038814</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.0070089275324</v>
+        <v>29.88386471146389</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.00700892815901</v>
+        <v>-7.953203823608476</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.00700895158561</v>
+        <v>15.16476731135389</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.00700894272314</v>
+        <v>19.36713674820091</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.00700895213413</v>
+        <v>27.20117562999457</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.00700897171878</v>
+        <v>-7.62801945650374</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.00700899391477</v>
+        <v>16.72538603535469</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.00700899073835</v>
+        <v>32.07775053296463</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.00700900029693</v>
+        <v>40.29460672775181</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.00700896231693</v>
+        <v>35.16174298814883</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.00700897183116</v>
+        <v>42.50134770561661</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.00700898995582</v>
+        <v>4.042898588373937</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.00700901238357</v>
+        <v>30.61780973470113</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.0070090102567</v>
+        <v>50.41384504883086</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.0070090199117</v>
+        <v>58.04292633962653</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.0070089657623</v>
+        <v>36.59752255474555</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.00700897522977</v>
+        <v>43.92755523138079</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.0070089930043</v>
+        <v>5.599142997201209</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.00700901529932</v>
+        <v>32.5869461973423</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.00700901333432</v>
+        <v>52.82811712589347</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.00700902293962</v>
+        <v>60.41964242735966</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.00700894789023</v>
+        <v>27.03045920526964</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.00700895740689</v>
+        <v>35.13866192678391</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.00700897682838</v>
+        <v>0.4173494473508512</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.00700899924321</v>
+        <v>26.20181755117951</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.00700899626013</v>
+        <v>42.66638476978214</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.00700900592287</v>
+        <v>51.10298577934624</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.00700889110115</v>
+        <v>-19.19333537492273</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.00700891270382</v>
+        <v>-0.4049660192092794</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.00700890873453</v>
+        <v>10.70058714340212</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.00700891673713</v>
+        <v>14.5766642736782</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.00700891780238</v>
+        <v>-17.83176633514448</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.00700894037677</v>
+        <v>2.562276857623786</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.00700890744973</v>
+        <v>-12.7921593214924</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.00700892928586</v>
+        <v>8.029543817241617</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.0070089263313</v>
+        <v>22.86956428599579</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.00700893442357</v>
+        <v>26.2490770573615</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.00700893549715</v>
+        <v>-8.911152440478478</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.00700895831289</v>
+        <v>13.65840922342661</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.00700891080104</v>
+        <v>-12.50648109231493</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.00700893250897</v>
+        <v>8.720284246425759</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.00700892972487</v>
+        <v>23.98241115705423</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.00700893777731</v>
+        <v>27.34813247961785</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.0070089388559</v>
+        <v>-8.307798253086915</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.00700896153672</v>
+        <v>14.68744306966756</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.00700889512407</v>
+        <v>-15.34826613908535</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.00700891694079</v>
+        <v>4.722737322021835</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.0070089131622</v>
+        <v>16.85420109307082</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.00700892125494</v>
+        <v>20.90444791323289</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.00700892235258</v>
+        <v>-12.70287878245266</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.00700894514963</v>
+        <v>9.063398056347374</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.0070089363179</v>
+        <v>13.06360888004584</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.00700894545772</v>
+        <v>20.72187358974544</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.00700896551558</v>
+        <v>-11.98832626977744</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.00700898711758</v>
+        <v>11.01784531722644</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.0070089837927</v>
+        <v>25.71569890877328</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.00700899308159</v>
+        <v>33.74680385201532</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.00700895531206</v>
+        <v>28.12558378128147</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.00700896455233</v>
+        <v>35.30602111597231</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.007008983205</v>
+        <v>-0.8958082218310075</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.00700900503293</v>
+        <v>24.25718057358868</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.00700900272789</v>
+        <v>43.25882835818071</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.0070090121107</v>
+        <v>50.72209302391456</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.00700895870887</v>
+        <v>29.52349745767384</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.00700896790375</v>
+        <v>36.69465999349335</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.00700898621002</v>
+        <v>0.6202419973554214</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.00700900790869</v>
+        <v>26.1754266163142</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.00700900576312</v>
+        <v>45.60995337865896</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.00700901509766</v>
+        <v>53.0371102149918</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.0070089412832</v>
+        <v>20.39268997410069</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.00700895052568</v>
+        <v>28.31982397884098</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.00700897043512</v>
+        <v>-4.255986598130992</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.00700899224994</v>
+        <v>20.13036823737328</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.0070089891116</v>
+        <v>35.90259689169175</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.0070089985018</v>
+        <v>44.15052917399218</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.00700891106819</v>
+        <v>-8.955472295766217</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.00700893411684</v>
+        <v>11.78705671442641</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.0070089313609</v>
+        <v>24.9183679489153</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.00700894023258</v>
+        <v>29.78769454140713</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.00700894024989</v>
+        <v>-9.26689385559752</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.00700896432345</v>
+        <v>13.21466102713678</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.00700892922742</v>
+        <v>-0.5799768908409497</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.00700895252196</v>
+        <v>22.37833705986679</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.00700895090023</v>
+        <v>39.65093427399</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.00700895986625</v>
+        <v>43.98819036192256</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.00700895985803</v>
+        <v>1.868430781366644</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.00700898418597</v>
+        <v>26.71390526154595</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.00700893276036</v>
+        <v>0.008606802634304245</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.00700895591796</v>
+        <v>23.41040843060992</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.00700895447495</v>
+        <v>41.14504872304732</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.00700896339664</v>
+        <v>45.46529918203004</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.00700896339812</v>
+        <v>2.824098402806506</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.00700898758191</v>
+        <v>28.13371374667624</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.00700891576856</v>
+        <v>-3.856803512284394</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.00700893904535</v>
+        <v>18.29091821297434</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.00700893651615</v>
+        <v>32.56974725750971</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.00700894548804</v>
+        <v>37.6364697226065</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.00700894552487</v>
+        <v>-2.74989798827356</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.00700896983555</v>
+        <v>21.23142893042673</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.0070089614494</v>
+        <v>25.21733182404663</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.00700897157746</v>
+        <v>34.3865016241287</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.00700898886545</v>
+        <v>-4.584203219055151</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.00700901189191</v>
+        <v>20.64165838772945</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.007009009603</v>
+        <v>37.41048292149725</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.00700901987867</v>
+        <v>46.88861829008495</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.00700898248919</v>
+        <v>43.10187847826066</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.00700899272329</v>
+        <v>51.75657415306484</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.00700900838862</v>
+        <v>8.913649498557927</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.00700903165288</v>
+        <v>36.46997773663489</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.00700903049033</v>
+        <v>57.98387297591842</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.00700904086621</v>
+        <v>66.8530489080356</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.00700898606642</v>
+        <v>44.92987584351546</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.00700899625022</v>
+        <v>53.57031974340461</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.00700901155817</v>
+        <v>10.86522517940471</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.00700903468426</v>
+        <v>38.85925612855979</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.0070090336887</v>
+        <v>60.8485969943381</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.00700904401143</v>
+        <v>69.67622707447278</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.00700896718925</v>
+        <v>34.16524511762226</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.00700897743162</v>
+        <v>43.63456130593288</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.00700899450046</v>
+        <v>4.683652987617659</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.00700901775329</v>
+        <v>31.41369776716955</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.00700901568221</v>
+        <v>49.37955847681472</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.00700902607079</v>
+        <v>59.1042437632976</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.00700889879475</v>
+        <v>-1.493697532696736</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.00700892100279</v>
+        <v>19.23365754828861</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.0070089172171</v>
+        <v>31.01993543874337</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.00700892551262</v>
+        <v>35.36548111002771</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.00700892599862</v>
+        <v>-3.076953207584211</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.00700894919908</v>
+        <v>19.29030978861903</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.0070089157006</v>
+        <v>5.671250080313126</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.00700893815016</v>
+        <v>28.51645854267137</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.00700893540599</v>
+        <v>44.1525866400934</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.00700894379345</v>
+        <v>47.98089483858205</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.00700894428523</v>
+        <v>6.672839210121115</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.00700896773532</v>
+        <v>31.30455250432616</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.00700891908725</v>
+        <v>5.916361956489276</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.00700894140518</v>
+        <v>29.17152952104796</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.00700893883359</v>
+        <v>45.23699757060302</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.0070089471799</v>
+        <v>49.04962074147414</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.00700894768155</v>
+        <v>7.261852480599822</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.00700897099315</v>
+        <v>32.32415719181834</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.00700890302315</v>
+        <v>2.670079123126232</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.00700892545152</v>
+        <v>24.72860139977969</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.00700892186319</v>
+        <v>37.56239855888752</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.00700893025234</v>
+        <v>42.08983184859883</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.0070089307673</v>
+        <v>2.379026392182372</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.00700895419689</v>
+        <v>26.16812523577138</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.00700894531921</v>
+        <v>30.33111719649777</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.00700895478175</v>
+        <v>38.50579058088562</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.00700897380379</v>
+        <v>0.6568572051370083</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.00700899599991</v>
+        <v>25.61421346375509</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.00700899281853</v>
+        <v>41.00428420676238</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.00700900243151</v>
+        <v>49.55343975982454</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.00700896494086</v>
+        <v>46.43512845838156</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.00700897450642</v>
+        <v>54.10914275385094</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.0070089920623</v>
+        <v>12.5735762844977</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.00700901449216</v>
+        <v>39.76495393333194</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.00700901235424</v>
+        <v>59.58719618603592</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.00700902206379</v>
+        <v>67.54403021570165</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.00700896837374</v>
+        <v>47.83015726913164</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.00700897789253</v>
+        <v>55.49379689530937</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.00700899510089</v>
+        <v>14.10130238282025</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.00700901739805</v>
+        <v>41.69929073230388</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.00700901542133</v>
+        <v>61.96199028767815</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.0070090250812</v>
+        <v>69.88131413023615</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.00700895051594</v>
+        <v>38.05138743827727</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.00700896008506</v>
+        <v>46.50586878135431</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.00700897893753</v>
+        <v>8.744098519187133</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.0070090013526</v>
+        <v>35.12966988827965</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.00700899836308</v>
+        <v>51.61483546182015</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.00700900808124</v>
+        <v>60.39115361961909</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.0070089187188</v>
+        <v>2.088996097773862</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.00700894171932</v>
+        <v>24.75035343498152</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.00700893914219</v>
+        <v>38.42292845110126</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.00700894799001</v>
+        <v>43.16161102790838</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.00700894777376</v>
+        <v>0.7288980552832207</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.00700897179432</v>
+        <v>25.11490763303187</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.00700893681654</v>
+        <v>10.78906592985398</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.00700896006202</v>
+        <v>35.70106923077847</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.00700895861369</v>
+        <v>53.56250621737242</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.00700896755435</v>
+        <v>57.74741490770153</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.0070089673068</v>
+        <v>12.13304044110515</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.00700899158066</v>
+        <v>38.91771654670799</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.00700894027962</v>
+        <v>11.39243927141524</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.00700896338853</v>
+        <v>36.7419509768388</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.00700896211678</v>
+        <v>55.07355804487894</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.00700897101282</v>
+        <v>59.23644371257573</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.0070089707762</v>
+        <v>13.09858033169051</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.00700899490632</v>
+        <v>40.34141515315697</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.00700892345699</v>
+        <v>7.479818980272288</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.00700894668528</v>
+        <v>31.56961053458708</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.00700894433515</v>
+        <v>46.4166291839699</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.00700895328232</v>
+        <v>51.341154313549</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.0070089530825</v>
+        <v>7.496397875254146</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.00700897733974</v>
+        <v>33.40492828859816</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.00700896911082</v>
+        <v>37.69619873005387</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.00700897920535</v>
+        <v>46.66718364810673</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.00700899536132</v>
+        <v>3.763202128106212</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.00700901833526</v>
+        <v>30.81961851541844</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.00700901621025</v>
+        <v>48.17419940088996</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.00700902645025</v>
+        <v>57.44220304414094</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.00700899006883</v>
+        <v>55.93280219810511</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.00700900026767</v>
+        <v>64.36406451122224</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.00700901479546</v>
+        <v>17.47307437430272</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.0070090380063</v>
+        <v>46.89399433895944</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.00700903700168</v>
+        <v>69.03986336724289</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.00700904734006</v>
+        <v>77.67257090638297</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.00700899357354</v>
+        <v>57.77222810576711</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.00700900372179</v>
+        <v>66.18413311129125</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.00700901789982</v>
+        <v>19.43494166826329</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.00700904097285</v>
+        <v>49.28751016491496</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.00700904013318</v>
+        <v>71.91696897135702</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.00700905041813</v>
+        <v>80.50275361121885</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.00700897488431</v>
+        <v>46.94263865587308</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.00700898509211</v>
+        <v>56.20124722432534</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.00700900101869</v>
+        <v>13.25094877838987</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.00700902421856</v>
+        <v>41.832511130957</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.00700902231144</v>
+        <v>60.41171311041427</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.0070090326633</v>
+        <v>69.91282374506025</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.00700891622817</v>
+        <v>-1.965691476019959</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.00700893858226</v>
+        <v>18.89332377024862</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.00700893608576</v>
+        <v>32.20830725939378</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.00700894472792</v>
+        <v>36.99004134481828</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.00700894471598</v>
+        <v>-1.432536024817747</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.00700896806222</v>
+        <v>21.0915584924802</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.00700893390656</v>
+        <v>6.49198187124744</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.00700895649821</v>
+        <v>29.52065368302034</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.00700895510832</v>
+        <v>46.90448528404547</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.00700896384116</v>
+        <v>51.15845016901348</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.0070089637991</v>
+        <v>9.67924905994391</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.00700898739107</v>
+        <v>34.51458375061233</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.0070089373231</v>
+        <v>7.138760505590204</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.0070089597819</v>
+        <v>30.59837756927622</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.00700895856543</v>
+        <v>48.43741220583594</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.00700896725481</v>
+        <v>52.67105906522395</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.00700896722125</v>
+        <v>10.66615411788069</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.00700899067337</v>
+        <v>35.95207559100857</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.00700892084275</v>
+        <v>3.320165198203952</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.007008943418</v>
+        <v>25.55771794138192</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.00700894114492</v>
+        <v>40.01184371748217</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.00700894988442</v>
+        <v>44.98008969586975</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.00700894988926</v>
+        <v>5.203341492548883</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.0070089734653</v>
+        <v>29.19654877333502</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.00700896545509</v>
+        <v>33.3952217014226</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.00700897532127</v>
+        <v>42.3799580688336</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.00700899150424</v>
+        <v>1.848562275422541</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.00700901383375</v>
+        <v>27.01067791850205</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.00700901177209</v>
+        <v>43.98155787946925</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.00700902178022</v>
+        <v>53.23950506552528</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.00700898593171</v>
+        <v>51.12558271381572</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.00700899589991</v>
+        <v>59.59850924705404</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.00700901049549</v>
+        <v>15.23502024555923</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.00700903305471</v>
+        <v>42.67508383719321</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.00700903209039</v>
+        <v>64.30204295391115</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.00700904219505</v>
+        <v>72.95641606341172</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.00700898938985</v>
+        <v>52.96590695348007</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.00700899930876</v>
+        <v>61.420517073572</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.00700901355952</v>
+        <v>17.19489343429025</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.00700903598465</v>
+        <v>45.05925536183824</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.00700903518233</v>
+        <v>67.15429357652744</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.00700904523498</v>
+        <v>75.76422129707731</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.00700897108248</v>
+        <v>42.42942180416593</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.00700898105974</v>
+        <v>51.69991108487663</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.00700899702137</v>
+        <v>11.13748022413664</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.00700901957021</v>
+        <v>37.77084245782326</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.00700901772283</v>
+        <v>55.92981675099085</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.00700902784071</v>
+        <v>65.4218652849202</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.00700890315073</v>
+        <v>-3.177938511670948</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.00700892635394</v>
+        <v>19.0008889486366</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.00700892282343</v>
+        <v>31.46717315389774</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.00700893159658</v>
+        <v>36.04556235341328</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.00700893187172</v>
+        <v>-4.859178798717856</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.00700895610877</v>
+        <v>19.02994646887146</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.007008921037</v>
+        <v>4.904587146526481</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.00700894449183</v>
+        <v>29.31443007550215</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.00700894206581</v>
+        <v>45.85405165091967</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.00700895093416</v>
+        <v>49.88427266396177</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.00700895120359</v>
+        <v>5.910714006630712</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.00700897570076</v>
+        <v>32.18277596080975</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.00700892456885</v>
+        <v>5.334303566227621</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.00700894788609</v>
+        <v>30.17327229433177</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.00700894563997</v>
+        <v>47.1725955116666</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.0070089544647</v>
+        <v>51.18509264519334</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.00700895474447</v>
+        <v>6.697200291180135</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.00700897909685</v>
+        <v>33.41957993479257</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.0070089076955</v>
+        <v>1.577546595716875</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.00700893112884</v>
+        <v>25.15743713206481</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.00700892781193</v>
+        <v>38.74763871404609</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.00700893668412</v>
+        <v>43.51604964548014</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.0070089369849</v>
+        <v>1.23901254757617</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.00700896146121</v>
+        <v>26.62321723182971</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.00700895247876</v>
+        <v>30.67336852595146</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.00700896248536</v>
+        <v>39.2749173490478</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.00700898115202</v>
+        <v>-1.538882903739061</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.00700900433711</v>
+        <v>25.01786588052676</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.00700900137736</v>
+        <v>41.26256782729924</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.00700901153935</v>
+        <v>50.24772582840757</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.0070089732201</v>
+        <v>48.14786151893657</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.00700898333355</v>
+        <v>56.21580856375246</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.00700900042884</v>
+        <v>11.48241893428557</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.00700902385737</v>
+        <v>40.38901071275371</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.0070090219999</v>
+        <v>61.31029151011059</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.00700903226241</v>
+        <v>69.66762154280914</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.00700897679858</v>
+        <v>49.78809126956653</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.00700898686252</v>
+        <v>57.84312057873557</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.00700900359749</v>
+        <v>13.24694530687737</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.00700902688727</v>
+        <v>42.57824177723641</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.00700902519771</v>
+        <v>63.97015010160224</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.00700903540774</v>
+        <v>72.28682404071618</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.00700895804619</v>
+        <v>39.17451653381581</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.00700896816558</v>
+        <v>48.06762598637815</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.00700898663594</v>
+        <v>7.272420456005023</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.00700901004955</v>
+        <v>35.32885330068724</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.00700900729624</v>
+        <v>52.74444086783646</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.00700901756963</v>
+        <v>61.96755800976818</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.00700890998305</v>
+        <v>-11.13375376139853</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.00700893213208</v>
+        <v>8.643938847750931</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.00700892936282</v>
+        <v>20.9819432205286</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.00700893785479</v>
+        <v>25.59463209142726</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.00700893808508</v>
+        <v>-9.417936370239754</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.00700896122184</v>
+        <v>12.13778079880768</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.00700892739912</v>
+        <v>-3.274734483575788</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.00700894978534</v>
+        <v>18.62907962985163</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.00700894810363</v>
+        <v>34.9188208464866</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.00700895668573</v>
+        <v>39.02434658261096</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.00700895689773</v>
+        <v>1.189112592043454</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.00700898027991</v>
+        <v>25.01763889363201</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.00700893081261</v>
+        <v>-2.747858301392473</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.00700895306732</v>
+        <v>19.58222437961359</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.007008951558</v>
+        <v>36.30808537833812</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.00700896009781</v>
+        <v>40.40004891901516</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.00700896031787</v>
+        <v>2.068520263297859</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.00700898356163</v>
+        <v>26.34282475206152</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.00700891447203</v>
+        <v>-6.364617722795003</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.00700893684044</v>
+        <v>14.76068370150786</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.00700893428791</v>
+        <v>28.18034453067875</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.00700894287599</v>
+        <v>32.98662226938954</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.00700894312727</v>
+        <v>-3.250250718885329</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.00700896649206</v>
+        <v>19.74521311361536</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.00700895833676</v>
+        <v>23.40176385904202</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.00700896803747</v>
+        <v>32.20564326373824</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.00700898511114</v>
+        <v>-4.827728614017865</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.00700900724451</v>
+        <v>19.3674874603674</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.00700900492704</v>
+        <v>35.11146050053892</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.00700901477262</v>
+        <v>44.2340124544627</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.00700897852416</v>
+        <v>40.47089696627614</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.0070089883262</v>
+        <v>48.78662403649834</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.00700900385148</v>
+        <v>8.071994226832686</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.00700902621438</v>
+        <v>34.50848302046393</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.00700902497783</v>
+        <v>54.78621760413975</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.00700903491914</v>
+        <v>63.33001335622046</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.00700898198079</v>
+        <v>42.1800456966506</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.00700899173479</v>
+        <v>50.48561682169527</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.00700900691402</v>
+        <v>9.90603580895349</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.00700902914422</v>
+        <v>36.76333098467437</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.00700902806885</v>
+        <v>57.48967969963809</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.00700903795934</v>
+        <v>65.996857177734</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.00700896382475</v>
+        <v>31.88175417990867</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.00700897363514</v>
+        <v>40.98095126806221</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.00700899050265</v>
+        <v>3.971204143084304</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.00700901285379</v>
+        <v>29.61143774423444</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.00700901074464</v>
+        <v>46.48088375126221</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.00700902069856</v>
+        <v>55.84734481521232</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.00700891597498</v>
+        <v>-5.034177837476925</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.00700893820669</v>
+        <v>15.36524837715505</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.00700893573899</v>
+        <v>28.48752900008596</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.00700894434512</v>
+        <v>33.36058076049364</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.00700894429565</v>
+        <v>-4.484531273357511</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.00700896751401</v>
+        <v>17.59345128870098</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.00700893358308</v>
+        <v>3.36383254904413</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.00700895605111</v>
+        <v>25.92252039832097</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.00700895468558</v>
+        <v>43.09144904406534</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.00700896338229</v>
+        <v>47.44588895777768</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.00700896330311</v>
+        <v>6.582207818320779</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.00700898676596</v>
+        <v>30.96141684318782</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.00700893698969</v>
+        <v>4.016125330284158</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.0070089593256</v>
+        <v>27.00661808399423</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.00700895813258</v>
+        <v>44.62625148586834</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.00700896678611</v>
+        <v>48.96215298230034</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.00700896671574</v>
+        <v>7.576929064876762</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.00700899003951</v>
+        <v>32.40746238495061</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.0070089205682</v>
+        <v>0.1861763681402948</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.00700894301987</v>
+        <v>21.95711724439925</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.0070089407747</v>
+        <v>36.20596601058129</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.00700894947793</v>
+        <v>41.27023895934616</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.00700894944508</v>
+        <v>2.093246434299576</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.00700897289201</v>
+        <v>25.63328839849515</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.00700896493115</v>
+        <v>29.62812088634826</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.00700897475687</v>
+        <v>38.73759756033384</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.00700899090192</v>
+        <v>-0.8747693271519879</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.00700901310905</v>
+        <v>23.84948537659819</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.00700901106619</v>
+        <v>40.553618207631</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.00700902103244</v>
+        <v>49.93263965677424</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.00700898532611</v>
+        <v>47.27957953376343</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.00700899525373</v>
+        <v>55.88762470989376</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.00700900981828</v>
+        <v>12.47936224571336</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.00700903225394</v>
+        <v>39.4717456637871</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.00700903130373</v>
+        <v>60.80820222946802</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.00700904136646</v>
+        <v>69.59435455518432</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.0070089887746</v>
+        <v>49.12445567339318</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.00700899865327</v>
+        <v>57.7159979500714</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.00700901287423</v>
+        <v>14.44599022242688</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.00700903517654</v>
+        <v>41.86352030596296</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.00700903438751</v>
+        <v>63.6638126912021</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.00700904439857</v>
+        <v>72.40745710201418</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.00700897053251</v>
+        <v>38.58470954285116</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.00700898046903</v>
+        <v>47.98529552467578</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.00700899639401</v>
+        <v>8.358038631698413</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.0070090188193</v>
+        <v>34.54687733095586</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.00700901698978</v>
+        <v>52.42580187524653</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.0070090270655</v>
+        <v>62.04460103510796</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.00700891141176</v>
+        <v>1.397019825782632</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.00700893440797</v>
+        <v>23.06320219744948</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.00700893159868</v>
+        <v>36.60090283813128</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.00700894034869</v>
+        <v>40.71268880004309</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.00700894034544</v>
+        <v>0.1228387140934721</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.00700896436349</v>
+        <v>23.48696656227872</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.00700892938752</v>
+        <v>9.368340805879724</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.00700895262833</v>
+        <v>33.20330453920537</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.0070089509423</v>
+        <v>50.7835891170855</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.00700895978635</v>
+        <v>54.35374736830901</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.00700895976183</v>
+        <v>10.75768752681998</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.0070089840329</v>
+        <v>36.43573712005896</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.00700893287614</v>
+        <v>9.815252489457741</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.00700895598035</v>
+        <v>34.07488933008973</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.00700895447127</v>
+        <v>52.10435278696623</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.00700896327148</v>
+        <v>55.65466243294279</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.00700896325791</v>
+        <v>11.5681057036054</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.00700898738523</v>
+        <v>37.69135167995189</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.00700891604858</v>
+        <v>6.256218962079142</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.00700893927241</v>
+        <v>29.30269681576987</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.00700893668639</v>
+        <v>43.97239570883325</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.00700894553497</v>
+        <v>48.25581061720172</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.00700894555267</v>
+        <v>6.351620681461309</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.00700896980733</v>
+        <v>31.18874743280451</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.00700896144494</v>
+        <v>36.06046151449956</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.007008971434</v>
+        <v>44.19600334020329</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.00700898876994</v>
+        <v>3.364930532670915</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.00700901174282</v>
+        <v>29.33647857180559</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.00700900942388</v>
+        <v>46.42854344444988</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.0070090195598</v>
+        <v>54.90070055105605</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.00700898228099</v>
+        <v>53.28711417492637</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.00700899237561</v>
+        <v>60.89663402740364</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.00700900811403</v>
+        <v>16.24567682415495</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>29.00700903132346</v>
+        <v>44.49937619915237</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>29.0070090301221</v>
+        <v>66.21289370066121</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>29.0070090403575</v>
+        <v>74.06593835623606</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>29.00700898581284</v>
+        <v>54.93820235801674</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>29.0070089958577</v>
+        <v>62.53118627200679</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.00700901124293</v>
+        <v>18.01888124619578</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>29.00700903431461</v>
+        <v>46.69297198629653</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>29.00700903327859</v>
+        <v>68.86689944691967</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>29.00700904346135</v>
+        <v>76.67612649282519</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>29.00700896711328</v>
+        <v>44.68454148851291</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>29.00700897721471</v>
+        <v>53.08964320246648</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>29.00700899433891</v>
+        <v>12.23709697136524</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>29.00700901753774</v>
+        <v>39.68670296115921</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>29.00700901543383</v>
+        <v>57.95791301419929</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>29.00700902568069</v>
+        <v>66.64627650300197</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>29.00700890688686</v>
+        <v>-2.703325981228101</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>29.00700893009643</v>
+        <v>19.63303665833727</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>29.00700892680338</v>
+        <v>32.24054876277124</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>29.00700893560514</v>
+        <v>36.80107347007964</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>29.00700893566544</v>
+        <v>-4.538819973478113</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>29.00700895990724</v>
+        <v>19.50247464317317</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>29.00700892487137</v>
+        <v>5.518791946968189</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.00700894833217</v>
+        <v>30.08912892629323</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>29.00700894615104</v>
+        <v>46.77754326108797</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>29.00700895504751</v>
+        <v>50.7872313846599</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>29.00700895509527</v>
+        <v>6.365025872558292</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>29.00700897959677</v>
+        <v>32.79134022362177</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>29.00700892839541</v>
+        <v>5.995729748006688</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>29.00700895171862</v>
+        <v>30.99530311664262</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>29.00700894971672</v>
+        <v>48.14413453783801</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>29.00700895856934</v>
+        <v>52.13576001578298</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>29.00700895862805</v>
+        <v>7.19722526643776</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>29.00700898298475</v>
+        <v>34.07369798351689</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>29.00700891149096</v>
+        <v>2.173831738438281</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.00700893493076</v>
+        <v>25.91389997507693</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>29.00700893185491</v>
+        <v>39.65114414520552</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>29.00700894075598</v>
+        <v>44.40110359204853</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>29.00700894083856</v>
+        <v>1.672788943599176</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>29.00700896531967</v>
+        <v>27.21104630882281</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>29.00700895651074</v>
+        <v>31.22446240228555</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>29.0070089665513</v>
+        <v>39.84376564633288</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>29.00700898456314</v>
+        <v>-1.69167430170555</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>29.00700900775122</v>
+        <v>24.99958871812214</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>29.0070090049925</v>
+        <v>41.32048547119439</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>29.00700901518786</v>
+        <v>50.30642835218505</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>29.0070089773565</v>
+        <v>48.83976139526208</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>29.00700898750343</v>
+        <v>56.92298417441731</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>29.00700900392696</v>
+        <v>11.4599254865096</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>29.00700902735807</v>
+        <v>40.50284577384163</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>29.0070090257072</v>
+        <v>61.50408720044335</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>29.00700903600273</v>
+        <v>69.85997993239533</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>29.00700898092619</v>
+        <v>50.52657208095005</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>29.00700899102335</v>
+        <v>58.59624913518509</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>29.00700900708875</v>
+        <v>13.27013074421983</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>29.0070090303811</v>
+        <v>42.73750752666143</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>29.00700902889752</v>
+        <v>64.21035204185641</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>29.00700903914035</v>
+        <v>72.52523371845187</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.00700896214163</v>
+        <v>39.84628645516278</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>29.00700897229534</v>
+        <v>48.75677173505447</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>29.0070089901015</v>
+        <v>7.217893644740748</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>29.00700901351812</v>
+        <v>35.41014727156491</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>29.00700901096878</v>
+        <v>52.90684433078873</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>29.00700902127591</v>
+        <v>62.13080463986304</v>
       </c>
     </row>
   </sheetData>
